--- a/migforecasting/clustering/for paper/input with changes.xlsx
+++ b/migforecasting/clustering/for paper/input with changes.xlsx
@@ -620,49 +620,49 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>18707</v>
+        <v>7235.999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>21442.17478</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D4" t="n">
-        <v>71187.99999999997</v>
+        <v>19721.96170086985</v>
       </c>
       <c r="E4" t="n">
-        <v>3068.999999999999</v>
+        <v>2286.999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1434081.5877</v>
+        <v>1199846.21903</v>
       </c>
       <c r="G4" t="n">
         <v>30.8316326530612</v>
       </c>
       <c r="H4" t="n">
-        <v>208.9999999999986</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I4" t="n">
-        <v>249.9999999999989</v>
+        <v>77.80585983126005</v>
       </c>
       <c r="J4" t="n">
-        <v>760.299999999999</v>
+        <v>664.7999999999993</v>
       </c>
       <c r="K4" t="n">
-        <v>101102.9756497258</v>
+        <v>208310</v>
       </c>
       <c r="L4" t="n">
-        <v>330035.92</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M4" t="n">
-        <v>11480639.03699999</v>
+        <v>4717355.206267274</v>
       </c>
       <c r="N4" t="n">
-        <v>35.75225116085909</v>
+        <v>40.99999999999991</v>
       </c>
       <c r="O4" t="n">
-        <v>4768.999999999999</v>
+        <v>2013.999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>15406913.94669</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="5">
@@ -970,49 +970,49 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>17434</v>
+        <v>13019.99999999999</v>
       </c>
       <c r="C11" t="n">
         <v>24430.4175921144</v>
       </c>
       <c r="D11" t="n">
-        <v>72518.99999999999</v>
+        <v>56657.99999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1825</v>
+        <v>1856.999999999998</v>
       </c>
       <c r="F11" t="n">
-        <v>6519507.760880001</v>
+        <v>3773107.81368</v>
       </c>
       <c r="G11" t="n">
-        <v>27.6202945590994</v>
+        <v>28.1</v>
       </c>
       <c r="H11" t="n">
-        <v>270.9999999999982</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I11" t="n">
-        <v>292.9999999999989</v>
+        <v>371.9999999999984</v>
       </c>
       <c r="J11" t="n">
-        <v>384.7889277610419</v>
+        <v>995.0999999999988</v>
       </c>
       <c r="K11" t="n">
-        <v>28977.99857868786</v>
+        <v>134789</v>
       </c>
       <c r="L11" t="n">
-        <v>25366.99999999999</v>
+        <v>68742.99999999997</v>
       </c>
       <c r="M11" t="n">
-        <v>827690.0633385038</v>
+        <v>5197507.516799998</v>
       </c>
       <c r="N11" t="n">
-        <v>33.99999999999991</v>
+        <v>51.99999999999987</v>
       </c>
       <c r="O11" t="n">
-        <v>5712.999999999999</v>
+        <v>3299</v>
       </c>
       <c r="P11" t="n">
-        <v>12403303.24303</v>
+        <v>11634696.47015999</v>
       </c>
     </row>
     <row r="12">
@@ -1320,49 +1320,49 @@
         <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>13439</v>
+        <v>5714.508054533066</v>
       </c>
       <c r="C18" t="n">
-        <v>21170.54232</v>
+        <v>20441.32264</v>
       </c>
       <c r="D18" t="n">
-        <v>70891.10000000002</v>
+        <v>18620.07860285665</v>
       </c>
       <c r="E18" t="n">
-        <v>2106.999999999999</v>
+        <v>713.9226602467268</v>
       </c>
       <c r="F18" t="n">
-        <v>2932758.80928</v>
+        <v>795019.6038440204</v>
       </c>
       <c r="G18" t="n">
         <v>28.8591707317073</v>
       </c>
       <c r="H18" t="n">
-        <v>193.9999999999988</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I18" t="n">
-        <v>221.9999999999991</v>
+        <v>82.574144705994</v>
       </c>
       <c r="J18" t="n">
-        <v>793.0999999999995</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K18" t="n">
-        <v>1149829</v>
+        <v>390629.3741131953</v>
       </c>
       <c r="L18" t="n">
-        <v>72866.09999999998</v>
+        <v>50169.9141912</v>
       </c>
       <c r="M18" t="n">
-        <v>9782808.458399994</v>
+        <v>5170690.3577638</v>
       </c>
       <c r="N18" t="n">
         <v>37.03779183275061</v>
       </c>
       <c r="O18" t="n">
-        <v>3888</v>
+        <v>1578.038753022092</v>
       </c>
       <c r="P18" t="n">
-        <v>9535558.993199995</v>
+        <v>5162046.502920203</v>
       </c>
     </row>
     <row r="19">

--- a/migforecasting/clustering/for paper/input with changes.xlsx
+++ b/migforecasting/clustering/for paper/input with changes.xlsx
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5648.558240191881</v>
+        <v>3074.994130329068</v>
       </c>
       <c r="C2" t="n">
         <v>20815.4167831292</v>
       </c>
       <c r="D2" t="n">
-        <v>19721.96170086985</v>
+        <v>9990.927465433009</v>
       </c>
       <c r="E2" t="n">
         <v>881.0076688693483</v>
@@ -538,22 +538,22 @@
         <v>39.4</v>
       </c>
       <c r="H2" t="n">
-        <v>125.6772308691166</v>
+        <v>52.28189156677908</v>
       </c>
       <c r="I2" t="n">
-        <v>77.80585983126005</v>
+        <v>9.829484154314454</v>
       </c>
       <c r="J2" t="n">
-        <v>657.7753259148542</v>
+        <v>338.9834683803142</v>
       </c>
       <c r="K2" t="n">
-        <v>101102.9756497258</v>
+        <v>35709.00890922388</v>
       </c>
       <c r="L2" t="n">
-        <v>120574.1931586198</v>
+        <v>73632.72488415125</v>
       </c>
       <c r="M2" t="n">
-        <v>4717355.206267274</v>
+        <v>744853.9651349846</v>
       </c>
       <c r="N2" t="n">
         <v>35.75225116085909</v>
@@ -562,7 +562,7 @@
         <v>1599.139320430128</v>
       </c>
       <c r="P2" t="n">
-        <v>5013077.512856801</v>
+        <v>356159.9599555623</v>
       </c>
     </row>
     <row r="3">
@@ -650,10 +650,10 @@
         <v>208310</v>
       </c>
       <c r="L4" t="n">
-        <v>120574.1931586198</v>
+        <v>73217.65388798401</v>
       </c>
       <c r="M4" t="n">
-        <v>4717355.206267274</v>
+        <v>2545166.61841985</v>
       </c>
       <c r="N4" t="n">
         <v>40.99999999999991</v>
@@ -676,13 +676,13 @@
         <v>21712.38264</v>
       </c>
       <c r="D5" t="n">
-        <v>19721.96170086985</v>
+        <v>10065.87483001023</v>
       </c>
       <c r="E5" t="n">
         <v>881.0076688693483</v>
       </c>
       <c r="F5" t="n">
-        <v>1094086.860592877</v>
+        <v>693877.7992514279</v>
       </c>
       <c r="G5" t="n">
         <v>38.2</v>
@@ -697,10 +697,10 @@
         <v>657.7753259148542</v>
       </c>
       <c r="K5" t="n">
-        <v>101102.9756497258</v>
+        <v>16451.42835168915</v>
       </c>
       <c r="L5" t="n">
-        <v>120574.1931586198</v>
+        <v>44614.97432854872</v>
       </c>
       <c r="M5" t="n">
         <v>4968189.53784</v>
@@ -712,7 +712,7 @@
         <v>1599.139320430128</v>
       </c>
       <c r="P5" t="n">
-        <v>5013077.512856801</v>
+        <v>2603925.131103361</v>
       </c>
     </row>
     <row r="6">
@@ -750,7 +750,7 @@
         <v>127583</v>
       </c>
       <c r="L6" t="n">
-        <v>120574.1931586198</v>
+        <v>69713.06049263012</v>
       </c>
       <c r="M6" t="n">
         <v>5517088.419299998</v>
@@ -797,16 +797,16 @@
         <v>384.7889277610419</v>
       </c>
       <c r="K7" t="n">
-        <v>28977.99857868786</v>
+        <v>10711.99999999995</v>
       </c>
       <c r="L7" t="n">
-        <v>24766.25131576219</v>
+        <v>8164.16900863609</v>
       </c>
       <c r="M7" t="n">
-        <v>827690.0633385038</v>
+        <v>54366.53152584554</v>
       </c>
       <c r="N7" t="n">
-        <v>21.09561578308453</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="O7" t="n">
         <v>2896.85900668096</v>
@@ -847,13 +847,13 @@
         <v>962.7999999999989</v>
       </c>
       <c r="K8" t="n">
-        <v>28977.99857868786</v>
+        <v>8125.999999999992</v>
       </c>
       <c r="L8" t="n">
         <v>44861.88999999995</v>
       </c>
       <c r="M8" t="n">
-        <v>827690.0633385038</v>
+        <v>216908.5926211885</v>
       </c>
       <c r="N8" t="n">
         <v>33.99999999999992</v>
@@ -870,16 +870,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>10206.30689960662</v>
+        <v>4564.627890295273</v>
       </c>
       <c r="C9" t="n">
         <v>37917.46208</v>
       </c>
       <c r="D9" t="n">
-        <v>45468.34750546934</v>
+        <v>16177.06409222068</v>
       </c>
       <c r="E9" t="n">
-        <v>1645.641044300649</v>
+        <v>737.7220073590736</v>
       </c>
       <c r="F9" t="n">
         <v>2362294.764186412</v>
@@ -897,10 +897,10 @@
         <v>384.7889277610419</v>
       </c>
       <c r="K9" t="n">
-        <v>28977.99857868786</v>
+        <v>4886.999999999982</v>
       </c>
       <c r="L9" t="n">
-        <v>24766.25131576219</v>
+        <v>9316.235897955692</v>
       </c>
       <c r="M9" t="n">
         <v>827690.0633385038</v>
@@ -909,7 +909,7 @@
         <v>21.09561578308453</v>
       </c>
       <c r="O9" t="n">
-        <v>2896.85900668096</v>
+        <v>1143.729881414369</v>
       </c>
       <c r="P9" t="n">
         <v>8379778.190979367</v>
@@ -947,16 +947,16 @@
         <v>384.7889277610419</v>
       </c>
       <c r="K10" t="n">
-        <v>28977.99857868786</v>
+        <v>2243.999999999904</v>
       </c>
       <c r="L10" t="n">
-        <v>24766.25131576219</v>
+        <v>13298.13054705717</v>
       </c>
       <c r="M10" t="n">
-        <v>827690.0633385038</v>
+        <v>184575.0998610461</v>
       </c>
       <c r="N10" t="n">
-        <v>21.09561578308453</v>
+        <v>5.999999999999972</v>
       </c>
       <c r="O10" t="n">
         <v>3302</v>
@@ -1026,13 +1026,13 @@
         <v>19210.2288312461</v>
       </c>
       <c r="D12" t="n">
-        <v>7762.675320911603</v>
+        <v>3746.599999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>281.9402175474014</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="F12" t="n">
-        <v>374829.3789556442</v>
+        <v>84821.61661287429</v>
       </c>
       <c r="G12" t="n">
         <v>35.4380373831775</v>
@@ -1041,10 +1041,10 @@
         <v>54.0725142426617</v>
       </c>
       <c r="I12" t="n">
-        <v>28.22123465014427</v>
+        <v>9.999999999999948</v>
       </c>
       <c r="J12" t="n">
-        <v>479.1465622563072</v>
+        <v>220.5462165225156</v>
       </c>
       <c r="K12" t="n">
         <v>32749.97834610207</v>
@@ -1053,7 +1053,7 @@
         <v>14259.05628514748</v>
       </c>
       <c r="M12" t="n">
-        <v>1321756.113011211</v>
+        <v>633508.489027101</v>
       </c>
       <c r="N12" t="n">
         <v>22.70687713300876</v>
@@ -1062,7 +1062,7 @@
         <v>672.9999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>1212990.425859435</v>
+        <v>286032.9961373269</v>
       </c>
     </row>
     <row r="13">
@@ -1179,10 +1179,10 @@
         <v>7762.675320911603</v>
       </c>
       <c r="E15" t="n">
-        <v>281.9402175474014</v>
+        <v>130.9999999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>374829.3789556442</v>
+        <v>153719.0900088869</v>
       </c>
       <c r="G15" t="n">
         <v>35.4380373831775</v>
@@ -1191,7 +1191,7 @@
         <v>103.9999999999993</v>
       </c>
       <c r="I15" t="n">
-        <v>28.22123465014427</v>
+        <v>2.999999999999976</v>
       </c>
       <c r="J15" t="n">
         <v>479.1465622563072</v>
@@ -1270,49 +1270,49 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>5714.508054533066</v>
+        <v>1056.473753859249</v>
       </c>
       <c r="C17" t="n">
         <v>20427.3418483414</v>
       </c>
       <c r="D17" t="n">
-        <v>18620.07860285665</v>
+        <v>2381.065679515827</v>
       </c>
       <c r="E17" t="n">
-        <v>713.9226602467268</v>
+        <v>113.4249949517034</v>
       </c>
       <c r="F17" t="n">
-        <v>795019.6038440204</v>
+        <v>81501.24624526063</v>
       </c>
       <c r="G17" t="n">
         <v>35.8</v>
       </c>
       <c r="H17" t="n">
-        <v>121.2195445843775</v>
+        <v>15.9825267133037</v>
       </c>
       <c r="I17" t="n">
-        <v>82.574144705994</v>
+        <v>2.573634099879445</v>
       </c>
       <c r="J17" t="n">
-        <v>675.1104937785783</v>
+        <v>109.9937054332045</v>
       </c>
       <c r="K17" t="n">
-        <v>390629.3741131953</v>
+        <v>44335.91368807349</v>
       </c>
       <c r="L17" t="n">
-        <v>50169.9141912</v>
+        <v>2003.262820579908</v>
       </c>
       <c r="M17" t="n">
-        <v>5170690.3577638</v>
+        <v>1077875.228372509</v>
       </c>
       <c r="N17" t="n">
-        <v>37.03779183275061</v>
+        <v>11.57791462094847</v>
       </c>
       <c r="O17" t="n">
-        <v>1578.038753022092</v>
+        <v>315.8466231128759</v>
       </c>
       <c r="P17" t="n">
-        <v>5162046.502920203</v>
+        <v>1122077.832194185</v>
       </c>
     </row>
     <row r="18">
@@ -1329,10 +1329,10 @@
         <v>18620.07860285665</v>
       </c>
       <c r="E18" t="n">
-        <v>713.9226602467268</v>
+        <v>39.69874823309618</v>
       </c>
       <c r="F18" t="n">
-        <v>795019.6038440204</v>
+        <v>377439.3726886988</v>
       </c>
       <c r="G18" t="n">
         <v>28.8591707317073</v>
@@ -1344,13 +1344,13 @@
         <v>82.574144705994</v>
       </c>
       <c r="J18" t="n">
-        <v>675.1104937785783</v>
+        <v>273.7681169627428</v>
       </c>
       <c r="K18" t="n">
         <v>390629.3741131953</v>
       </c>
       <c r="L18" t="n">
-        <v>50169.9141912</v>
+        <v>30552.937259517</v>
       </c>
       <c r="M18" t="n">
         <v>5170690.3577638</v>
@@ -1370,19 +1370,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>5714.508054533066</v>
+        <v>2528.038589716432</v>
       </c>
       <c r="C19" t="n">
         <v>20427.3418483414</v>
       </c>
       <c r="D19" t="n">
-        <v>18620.07860285665</v>
+        <v>11096.21063674203</v>
       </c>
       <c r="E19" t="n">
-        <v>713.9226602467268</v>
+        <v>333.1859226706291</v>
       </c>
       <c r="F19" t="n">
-        <v>795019.6038440204</v>
+        <v>480263.6654099055</v>
       </c>
       <c r="G19" t="n">
         <v>28.8591707317073</v>
@@ -1397,13 +1397,13 @@
         <v>675.1104937785783</v>
       </c>
       <c r="K19" t="n">
-        <v>390629.3741131953</v>
+        <v>253392.3988960179</v>
       </c>
       <c r="L19" t="n">
-        <v>50169.9141912</v>
+        <v>30747.73245897568</v>
       </c>
       <c r="M19" t="n">
-        <v>5170690.3577638</v>
+        <v>3041350.614883801</v>
       </c>
       <c r="N19" t="n">
         <v>37.03779183275061</v>
@@ -1412,7 +1412,7 @@
         <v>1578.038753022092</v>
       </c>
       <c r="P19" t="n">
-        <v>5162046.502920203</v>
+        <v>482329.4836359872</v>
       </c>
     </row>
     <row r="20">
@@ -1453,7 +1453,7 @@
         <v>104307.93</v>
       </c>
       <c r="M20" t="n">
-        <v>5170690.3577638</v>
+        <v>2846566.710468096</v>
       </c>
       <c r="N20" t="n">
         <v>37.03779183275061</v>
@@ -1544,19 +1544,19 @@
         <v>171.9999999999993</v>
       </c>
       <c r="J22" t="n">
-        <v>515.0943407417118</v>
+        <v>201.0999999999998</v>
       </c>
       <c r="K22" t="n">
-        <v>49395.30627568397</v>
+        <v>14598.99999999995</v>
       </c>
       <c r="L22" t="n">
-        <v>37819.7689054316</v>
+        <v>23998.86785081873</v>
       </c>
       <c r="M22" t="n">
-        <v>1725327.064726412</v>
+        <v>286065.1040134371</v>
       </c>
       <c r="N22" t="n">
-        <v>25.90492510159179</v>
+        <v>10.99999999999997</v>
       </c>
       <c r="O22" t="n">
         <v>2915.76176821649</v>
@@ -1576,13 +1576,13 @@
         <v>34591.61742</v>
       </c>
       <c r="D23" t="n">
-        <v>38299.68163489593</v>
+        <v>16196.06113338833</v>
       </c>
       <c r="E23" t="n">
-        <v>1288.588016602401</v>
+        <v>593.7048669751483</v>
       </c>
       <c r="F23" t="n">
-        <v>2114276.549986417</v>
+        <v>198628.8662816901</v>
       </c>
       <c r="G23" t="n">
         <v>27.9654227272727</v>
@@ -1594,19 +1594,19 @@
         <v>132.0329562209512</v>
       </c>
       <c r="J23" t="n">
-        <v>515.0943407417118</v>
+        <v>169.2999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>49395.30627568397</v>
+        <v>19625.99999999998</v>
       </c>
       <c r="L23" t="n">
-        <v>37819.7689054316</v>
+        <v>14867.20570471301</v>
       </c>
       <c r="M23" t="n">
-        <v>1725327.064726412</v>
+        <v>527779.8131531713</v>
       </c>
       <c r="N23" t="n">
-        <v>25.90492510159179</v>
+        <v>11.99999999999997</v>
       </c>
       <c r="O23" t="n">
         <v>2915.76176821649</v>
@@ -1644,19 +1644,19 @@
         <v>232.999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>515.0943407417118</v>
+        <v>188.4999999999993</v>
       </c>
       <c r="K24" t="n">
-        <v>49395.30627568397</v>
+        <v>1592.999999999883</v>
       </c>
       <c r="L24" t="n">
         <v>37819.7689054316</v>
       </c>
       <c r="M24" t="n">
-        <v>1725327.064726412</v>
+        <v>385565.2847686771</v>
       </c>
       <c r="N24" t="n">
-        <v>25.90492510159179</v>
+        <v>7.999999999999967</v>
       </c>
       <c r="O24" t="n">
         <v>5536</v>
@@ -1694,19 +1694,19 @@
         <v>230.999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>515.0943407417118</v>
+        <v>233.2999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>49395.30627568397</v>
+        <v>383.99999999993</v>
       </c>
       <c r="L25" t="n">
         <v>37867.99999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>1725327.064726412</v>
+        <v>397106.5589331404</v>
       </c>
       <c r="N25" t="n">
-        <v>25.90492510159179</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="O25" t="n">
         <v>2915.76176821649</v>
@@ -1800,7 +1800,7 @@
         <v>61373.67232632842</v>
       </c>
       <c r="L27" t="n">
-        <v>29602.9087374105</v>
+        <v>12579.47779916077</v>
       </c>
       <c r="M27" t="n">
         <v>3234408.767199999</v>
@@ -1809,10 +1809,10 @@
         <v>28.51419426482713</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.642762831732</v>
+        <v>801.1041567238514</v>
       </c>
       <c r="P27" t="n">
-        <v>3002048.203665785</v>
+        <v>1155335.285561846</v>
       </c>
     </row>
     <row r="28">
@@ -1894,19 +1894,19 @@
         <v>194.9999999999991</v>
       </c>
       <c r="J29" t="n">
-        <v>497.8528815868382</v>
+        <v>257.8755753993303</v>
       </c>
       <c r="K29" t="n">
-        <v>61373.67232632842</v>
+        <v>2327.949027416018</v>
       </c>
       <c r="L29" t="n">
         <v>29602.9087374105</v>
       </c>
       <c r="M29" t="n">
-        <v>2185490.020395464</v>
+        <v>352889.0944825563</v>
       </c>
       <c r="N29" t="n">
-        <v>28.51419426482713</v>
+        <v>11.99999999999995</v>
       </c>
       <c r="O29" t="n">
         <v>3211</v>
@@ -1979,7 +1979,7 @@
         <v>69421.59999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>692.2186286246737</v>
+        <v>104.0508328856842</v>
       </c>
       <c r="F31" t="n">
         <v>3389505.055700001</v>
@@ -1997,16 +1997,16 @@
         <v>497.8528815868382</v>
       </c>
       <c r="K31" t="n">
-        <v>61373.67232632842</v>
+        <v>19594.91258346423</v>
       </c>
       <c r="L31" t="n">
         <v>57789.99999999995</v>
       </c>
       <c r="M31" t="n">
-        <v>2185490.020395464</v>
+        <v>708166.2951166953</v>
       </c>
       <c r="N31" t="n">
-        <v>28.51419426482713</v>
+        <v>5.999999999999963</v>
       </c>
       <c r="O31" t="n">
         <v>3403</v>

--- a/migforecasting/clustering/for paper/input with changes.xlsx
+++ b/migforecasting/clustering/for paper/input with changes.xlsx
@@ -517,752 +517,752 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3074.994130329068</v>
+        <v>2088.32491374875</v>
       </c>
       <c r="C2" t="n">
-        <v>20815.4167831292</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D2" t="n">
-        <v>9990.927465433009</v>
+        <v>3746.599999999997</v>
       </c>
       <c r="E2" t="n">
-        <v>881.0076688693483</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="F2" t="n">
-        <v>1094086.860592877</v>
+        <v>84821.61661287429</v>
       </c>
       <c r="G2" t="n">
-        <v>39.4</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H2" t="n">
-        <v>52.28189156677908</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I2" t="n">
-        <v>9.829484154314454</v>
+        <v>9.999999999999948</v>
       </c>
       <c r="J2" t="n">
-        <v>338.9834683803142</v>
+        <v>220.5462165225156</v>
       </c>
       <c r="K2" t="n">
-        <v>35709.00890922388</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L2" t="n">
-        <v>73632.72488415125</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M2" t="n">
-        <v>744853.9651349846</v>
+        <v>633508.489027101</v>
       </c>
       <c r="N2" t="n">
-        <v>35.75225116085909</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O2" t="n">
-        <v>1599.139320430128</v>
+        <v>672.9999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>356159.9599555623</v>
+        <v>286032.9961373269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10892</v>
+        <v>2386</v>
       </c>
       <c r="C3" t="n">
-        <v>21988.19528</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D3" t="n">
-        <v>37427.89999999999</v>
+        <v>10592.2</v>
       </c>
       <c r="E3" t="n">
-        <v>881.0076688693483</v>
+        <v>377.9999999999997</v>
       </c>
       <c r="F3" t="n">
-        <v>2824760.72811</v>
+        <v>398404.10684</v>
       </c>
       <c r="G3" t="n">
-        <v>30.8316326530612</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H3" t="n">
-        <v>125.6772308691166</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I3" t="n">
-        <v>242.999999999999</v>
+        <v>28.22123465014427</v>
       </c>
       <c r="J3" t="n">
-        <v>657.7753259148542</v>
+        <v>800.9999999999995</v>
       </c>
       <c r="K3" t="n">
-        <v>959880.0000000002</v>
+        <v>112137</v>
       </c>
       <c r="L3" t="n">
-        <v>322825.6199999999</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M3" t="n">
-        <v>12665201.6312</v>
+        <v>1610842.1836</v>
       </c>
       <c r="N3" t="n">
-        <v>35.75225116085909</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O3" t="n">
-        <v>3185</v>
+        <v>624.0000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>12405299.01264</v>
+        <v>1492496.07924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7235.999999999997</v>
+        <v>6906.999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>20815.4167831292</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D4" t="n">
-        <v>19721.96170086985</v>
+        <v>45679.39999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>2286.999999999999</v>
+        <v>943.9999999999995</v>
       </c>
       <c r="F4" t="n">
-        <v>1199846.21903</v>
+        <v>1135992.20592</v>
       </c>
       <c r="G4" t="n">
-        <v>30.8316326530612</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H4" t="n">
-        <v>125.6772308691166</v>
+        <v>86.99999999999939</v>
       </c>
       <c r="I4" t="n">
-        <v>77.80585983126005</v>
+        <v>196.9999999999992</v>
       </c>
       <c r="J4" t="n">
-        <v>664.7999999999993</v>
+        <v>2450.999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>208310</v>
+        <v>49269.99999999993</v>
       </c>
       <c r="L4" t="n">
-        <v>73217.65388798401</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M4" t="n">
-        <v>2545166.61841985</v>
+        <v>1321756.113011211</v>
       </c>
       <c r="N4" t="n">
-        <v>40.99999999999991</v>
+        <v>26.99999999999994</v>
       </c>
       <c r="O4" t="n">
-        <v>2013.999999999999</v>
+        <v>1960</v>
       </c>
       <c r="P4" t="n">
-        <v>5013077.512856801</v>
+        <v>1961160.027659998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5648.558240191881</v>
+        <v>4568.999999999998</v>
       </c>
       <c r="C5" t="n">
-        <v>21712.38264</v>
+        <v>21418.87329</v>
       </c>
       <c r="D5" t="n">
-        <v>10065.87483001023</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E5" t="n">
-        <v>881.0076688693483</v>
+        <v>130.9999999999998</v>
       </c>
       <c r="F5" t="n">
-        <v>693877.7992514279</v>
+        <v>153719.0900088869</v>
       </c>
       <c r="G5" t="n">
-        <v>38.2</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H5" t="n">
-        <v>125.6772308691166</v>
+        <v>103.9999999999993</v>
       </c>
       <c r="I5" t="n">
-        <v>77.80585983126005</v>
+        <v>2.999999999999976</v>
       </c>
       <c r="J5" t="n">
-        <v>657.7753259148542</v>
+        <v>479.1465622563072</v>
       </c>
       <c r="K5" t="n">
-        <v>16451.42835168915</v>
+        <v>106498</v>
       </c>
       <c r="L5" t="n">
-        <v>44614.97432854872</v>
+        <v>19137.90999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>4968189.53784</v>
+        <v>3427876.605499998</v>
       </c>
       <c r="N5" t="n">
-        <v>35.75225116085909</v>
+        <v>50.99999999999989</v>
       </c>
       <c r="O5" t="n">
-        <v>1599.139320430128</v>
+        <v>1218</v>
       </c>
       <c r="P5" t="n">
-        <v>2603925.131103361</v>
+        <v>3524494.848899999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5648.558240191881</v>
+        <v>2093.999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>20815.4167831292</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D6" t="n">
-        <v>19721.96170086985</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E6" t="n">
-        <v>1185.999999999999</v>
+        <v>449.9999999999994</v>
       </c>
       <c r="F6" t="n">
-        <v>1094086.860592877</v>
+        <v>374829.3789556442</v>
       </c>
       <c r="G6" t="n">
-        <v>36.5</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H6" t="n">
-        <v>125.6772308691166</v>
+        <v>59.99999999999958</v>
       </c>
       <c r="I6" t="n">
-        <v>91.99999999999964</v>
+        <v>28.22123465014427</v>
       </c>
       <c r="J6" t="n">
-        <v>873.5999999999993</v>
+        <v>647.7999999999992</v>
       </c>
       <c r="K6" t="n">
-        <v>127583</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L6" t="n">
-        <v>69713.06049263012</v>
+        <v>20804.14999999998</v>
       </c>
       <c r="M6" t="n">
-        <v>5517088.419299998</v>
+        <v>1533618.088899999</v>
       </c>
       <c r="N6" t="n">
-        <v>38.99999999999991</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.139320430128</v>
+        <v>676.9999999999995</v>
       </c>
       <c r="P6" t="n">
-        <v>6142682.320539998</v>
+        <v>1868542.215959998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>10206.30689960662</v>
+        <v>2815</v>
       </c>
       <c r="C7" t="n">
-        <v>24430.4175921144</v>
+        <v>20675.74732</v>
       </c>
       <c r="D7" t="n">
-        <v>45468.34750546934</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E7" t="n">
-        <v>1645.641044300649</v>
+        <v>387.9999999999998</v>
       </c>
       <c r="F7" t="n">
-        <v>2362294.764186412</v>
+        <v>509272.59584</v>
       </c>
       <c r="G7" t="n">
-        <v>27.6202945590994</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H7" t="n">
-        <v>122.673448310382</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I7" t="n">
-        <v>166.4639870129083</v>
+        <v>31.99999999999986</v>
       </c>
       <c r="J7" t="n">
-        <v>384.7889277610419</v>
+        <v>1231.999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>10711.99999999995</v>
+        <v>47001.99999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>8164.16900863609</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M7" t="n">
-        <v>54366.53152584554</v>
+        <v>2998146.312399999</v>
       </c>
       <c r="N7" t="n">
-        <v>1.999999999999993</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O7" t="n">
-        <v>2896.85900668096</v>
+        <v>1535</v>
       </c>
       <c r="P7" t="n">
-        <v>8379778.190979367</v>
+        <v>4597855.159240001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>24379.99999999999</v>
+        <v>2624.999999999997</v>
       </c>
       <c r="C8" t="n">
-        <v>24430.4175921144</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D8" t="n">
-        <v>207240.7</v>
+        <v>12773.49999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1859.999999999998</v>
+        <v>480.9999999999994</v>
       </c>
       <c r="F8" t="n">
-        <v>5926777.310929999</v>
+        <v>477102.6102099996</v>
       </c>
       <c r="G8" t="n">
-        <v>27.6202945590994</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H8" t="n">
-        <v>311.9999999999979</v>
+        <v>83.99999999999942</v>
       </c>
       <c r="I8" t="n">
-        <v>386.9999999999984</v>
+        <v>66.9999999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>962.7999999999989</v>
+        <v>586.0999999999991</v>
       </c>
       <c r="K8" t="n">
-        <v>8125.999999999992</v>
+        <v>13303.99999999998</v>
       </c>
       <c r="L8" t="n">
-        <v>44861.88999999995</v>
+        <v>31991.30999999998</v>
       </c>
       <c r="M8" t="n">
-        <v>216908.5926211885</v>
+        <v>2339528.865499998</v>
       </c>
       <c r="N8" t="n">
-        <v>33.99999999999992</v>
+        <v>40.99999999999988</v>
       </c>
       <c r="O8" t="n">
-        <v>6249</v>
+        <v>960.9999999999995</v>
       </c>
       <c r="P8" t="n">
-        <v>15178335.90336999</v>
+        <v>623372.2312366152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4564.627890295273</v>
+        <v>2241.999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>37917.46208</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D9" t="n">
-        <v>16177.06409222068</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E9" t="n">
-        <v>737.7220073590736</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F9" t="n">
-        <v>2362294.764186412</v>
+        <v>374829.3789556442</v>
       </c>
       <c r="G9" t="n">
-        <v>29.1</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H9" t="n">
-        <v>122.673448310382</v>
+        <v>54.99999999999961</v>
       </c>
       <c r="I9" t="n">
-        <v>166.4639870129083</v>
+        <v>34.99999999999984</v>
       </c>
       <c r="J9" t="n">
-        <v>384.7889277610419</v>
+        <v>982.8999999999988</v>
       </c>
       <c r="K9" t="n">
-        <v>4886.999999999982</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L9" t="n">
-        <v>9316.235897955692</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M9" t="n">
-        <v>827690.0633385038</v>
+        <v>1321756.113011211</v>
       </c>
       <c r="N9" t="n">
-        <v>21.09561578308453</v>
+        <v>24.99999999999993</v>
       </c>
       <c r="O9" t="n">
-        <v>1143.729881414369</v>
+        <v>693.9999999999993</v>
       </c>
       <c r="P9" t="n">
-        <v>8379778.190979367</v>
+        <v>3344506.716799998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>14881</v>
+        <v>2088.32491374875</v>
       </c>
       <c r="C10" t="n">
-        <v>35840.74176</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D10" t="n">
-        <v>52247.99999999999</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E10" t="n">
-        <v>2190.999999999999</v>
+        <v>135.9999999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>2740590.23832</v>
+        <v>169429.5963573527</v>
       </c>
       <c r="G10" t="n">
-        <v>27.6202945590994</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H10" t="n">
-        <v>240.9999999999985</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I10" t="n">
-        <v>194.9999999999992</v>
+        <v>8.999999999999947</v>
       </c>
       <c r="J10" t="n">
-        <v>384.7889277610419</v>
+        <v>175.793194243229</v>
       </c>
       <c r="K10" t="n">
-        <v>2243.999999999904</v>
+        <v>61603.99999999992</v>
       </c>
       <c r="L10" t="n">
-        <v>13298.13054705717</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M10" t="n">
-        <v>184575.0998610461</v>
+        <v>631359.2281276007</v>
       </c>
       <c r="N10" t="n">
-        <v>5.999999999999972</v>
+        <v>31.99999999999989</v>
       </c>
       <c r="O10" t="n">
-        <v>3302</v>
+        <v>609.5822332710397</v>
       </c>
       <c r="P10" t="n">
-        <v>8379778.190979367</v>
+        <v>105350.8331371273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>13019.99999999999</v>
+        <v>2088.32491374875</v>
       </c>
       <c r="C11" t="n">
-        <v>24430.4175921144</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D11" t="n">
-        <v>56657.99999999999</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E11" t="n">
-        <v>1856.999999999998</v>
+        <v>119.9999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>3773107.81368</v>
+        <v>374829.3789556442</v>
       </c>
       <c r="G11" t="n">
-        <v>28.1</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H11" t="n">
-        <v>122.673448310382</v>
+        <v>20.99999999999986</v>
       </c>
       <c r="I11" t="n">
-        <v>371.9999999999984</v>
+        <v>28.22123465014427</v>
       </c>
       <c r="J11" t="n">
-        <v>995.0999999999988</v>
+        <v>159.6987198736483</v>
       </c>
       <c r="K11" t="n">
-        <v>134789</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L11" t="n">
-        <v>68742.99999999997</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M11" t="n">
-        <v>5197507.516799998</v>
+        <v>1321756.113011211</v>
       </c>
       <c r="N11" t="n">
-        <v>51.99999999999987</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O11" t="n">
-        <v>3299</v>
+        <v>609.5822332710397</v>
       </c>
       <c r="P11" t="n">
-        <v>11634696.47015999</v>
+        <v>151489.0533602829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2088.32491374875</v>
+        <v>1056.473753859249</v>
       </c>
       <c r="C12" t="n">
-        <v>19210.2288312461</v>
+        <v>20427.3418483414</v>
       </c>
       <c r="D12" t="n">
-        <v>3746.599999999997</v>
+        <v>2381.065679515827</v>
       </c>
       <c r="E12" t="n">
-        <v>44.99999999999995</v>
+        <v>113.4249949517034</v>
       </c>
       <c r="F12" t="n">
-        <v>84821.61661287429</v>
+        <v>81501.24624526063</v>
       </c>
       <c r="G12" t="n">
-        <v>35.4380373831775</v>
+        <v>35.8</v>
       </c>
       <c r="H12" t="n">
-        <v>54.0725142426617</v>
+        <v>15.9825267133037</v>
       </c>
       <c r="I12" t="n">
-        <v>9.999999999999948</v>
+        <v>2.573634099879445</v>
       </c>
       <c r="J12" t="n">
-        <v>220.5462165225156</v>
+        <v>109.9937054332045</v>
       </c>
       <c r="K12" t="n">
-        <v>32749.97834610207</v>
+        <v>44335.91368807349</v>
       </c>
       <c r="L12" t="n">
-        <v>14259.05628514748</v>
+        <v>2003.262820579908</v>
       </c>
       <c r="M12" t="n">
-        <v>633508.489027101</v>
+        <v>1077875.228372509</v>
       </c>
       <c r="N12" t="n">
-        <v>22.70687713300876</v>
+        <v>11.57791462094847</v>
       </c>
       <c r="O12" t="n">
-        <v>672.9999999999999</v>
+        <v>315.8466231128759</v>
       </c>
       <c r="P12" t="n">
-        <v>286032.9961373269</v>
+        <v>1122077.832194185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>2386</v>
+        <v>5714.508054533066</v>
       </c>
       <c r="C13" t="n">
-        <v>19210.2288312461</v>
+        <v>20441.32264</v>
       </c>
       <c r="D13" t="n">
-        <v>10592.2</v>
+        <v>18620.07860285665</v>
       </c>
       <c r="E13" t="n">
-        <v>377.9999999999997</v>
+        <v>39.69874823309618</v>
       </c>
       <c r="F13" t="n">
-        <v>398404.10684</v>
+        <v>377439.3726886988</v>
       </c>
       <c r="G13" t="n">
-        <v>35.4380373831775</v>
+        <v>28.8591707317073</v>
       </c>
       <c r="H13" t="n">
-        <v>54.0725142426617</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I13" t="n">
-        <v>28.22123465014427</v>
+        <v>82.574144705994</v>
       </c>
       <c r="J13" t="n">
-        <v>800.9999999999995</v>
+        <v>273.7681169627428</v>
       </c>
       <c r="K13" t="n">
-        <v>112137</v>
+        <v>390629.3741131953</v>
       </c>
       <c r="L13" t="n">
-        <v>14259.05628514748</v>
+        <v>30552.937259517</v>
       </c>
       <c r="M13" t="n">
-        <v>1610842.1836</v>
+        <v>5170690.3577638</v>
       </c>
       <c r="N13" t="n">
-        <v>22.70687713300876</v>
+        <v>37.03779183275061</v>
       </c>
       <c r="O13" t="n">
-        <v>624.0000000000001</v>
+        <v>1578.038753022092</v>
       </c>
       <c r="P13" t="n">
-        <v>1492496.07924</v>
+        <v>5162046.502920203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>6906.999999999997</v>
+        <v>2528.038589716432</v>
       </c>
       <c r="C14" t="n">
-        <v>19210.2288312461</v>
+        <v>20427.3418483414</v>
       </c>
       <c r="D14" t="n">
-        <v>45679.39999999999</v>
+        <v>11096.21063674203</v>
       </c>
       <c r="E14" t="n">
-        <v>943.9999999999995</v>
+        <v>333.1859226706291</v>
       </c>
       <c r="F14" t="n">
-        <v>1135992.20592</v>
+        <v>480263.6654099055</v>
       </c>
       <c r="G14" t="n">
-        <v>35.4380373831775</v>
+        <v>28.8591707317073</v>
       </c>
       <c r="H14" t="n">
-        <v>86.99999999999939</v>
+        <v>155.9999999999989</v>
       </c>
       <c r="I14" t="n">
-        <v>196.9999999999992</v>
+        <v>82.574144705994</v>
       </c>
       <c r="J14" t="n">
-        <v>2450.999999999999</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K14" t="n">
-        <v>49269.99999999993</v>
+        <v>253392.3988960179</v>
       </c>
       <c r="L14" t="n">
-        <v>14259.05628514748</v>
+        <v>30747.73245897568</v>
       </c>
       <c r="M14" t="n">
-        <v>1321756.113011211</v>
+        <v>3041350.614883801</v>
       </c>
       <c r="N14" t="n">
-        <v>26.99999999999994</v>
+        <v>37.03779183275061</v>
       </c>
       <c r="O14" t="n">
-        <v>1960</v>
+        <v>1578.038753022092</v>
       </c>
       <c r="P14" t="n">
-        <v>1961160.027659998</v>
+        <v>482329.4836359872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>4568.999999999998</v>
+        <v>20038</v>
       </c>
       <c r="C15" t="n">
-        <v>21418.87329</v>
+        <v>25152.81668000001</v>
       </c>
       <c r="D15" t="n">
-        <v>7762.675320911603</v>
+        <v>72911.59999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>130.9999999999998</v>
+        <v>2549.999999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>153719.0900088869</v>
+        <v>4713511.93528</v>
       </c>
       <c r="G15" t="n">
-        <v>35.4380373831775</v>
+        <v>29.9</v>
       </c>
       <c r="H15" t="n">
-        <v>103.9999999999993</v>
+        <v>195.9999999999987</v>
       </c>
       <c r="I15" t="n">
-        <v>2.999999999999976</v>
+        <v>248.9999999999989</v>
       </c>
       <c r="J15" t="n">
-        <v>479.1465622563072</v>
+        <v>1123.199999999998</v>
       </c>
       <c r="K15" t="n">
-        <v>106498</v>
+        <v>1264806.999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>19137.90999999999</v>
+        <v>104307.93</v>
       </c>
       <c r="M15" t="n">
-        <v>3427876.605499998</v>
+        <v>2846566.710468096</v>
       </c>
       <c r="N15" t="n">
-        <v>50.99999999999989</v>
+        <v>37.03779183275061</v>
       </c>
       <c r="O15" t="n">
-        <v>1218</v>
+        <v>6308.999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>3524494.848899999</v>
+        <v>26988496.70547999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>2093.999999999999</v>
+        <v>8680.999999999998</v>
       </c>
       <c r="C16" t="n">
-        <v>19210.2288312461</v>
+        <v>20427.3418483414</v>
       </c>
       <c r="D16" t="n">
-        <v>7762.675320911603</v>
+        <v>32935.89999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>449.9999999999994</v>
+        <v>1673.999999999998</v>
       </c>
       <c r="F16" t="n">
-        <v>374829.3789556442</v>
+        <v>1330729.49304</v>
       </c>
       <c r="G16" t="n">
-        <v>35.4380373831775</v>
+        <v>28.8591707317073</v>
       </c>
       <c r="H16" t="n">
-        <v>59.99999999999958</v>
+        <v>158.9999999999989</v>
       </c>
       <c r="I16" t="n">
-        <v>28.22123465014427</v>
+        <v>184.9999999999992</v>
       </c>
       <c r="J16" t="n">
-        <v>647.7999999999992</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K16" t="n">
-        <v>32749.97834610207</v>
+        <v>810919.9999999998</v>
       </c>
       <c r="L16" t="n">
-        <v>20804.14999999998</v>
+        <v>182696</v>
       </c>
       <c r="M16" t="n">
-        <v>1533618.088899999</v>
+        <v>5519372.853599999</v>
       </c>
       <c r="N16" t="n">
-        <v>22.70687713300876</v>
+        <v>38.99999999999991</v>
       </c>
       <c r="O16" t="n">
-        <v>676.9999999999995</v>
+        <v>2500</v>
       </c>
       <c r="P16" t="n">
-        <v>1868542.215959998</v>
+        <v>5162046.502920203</v>
       </c>
     </row>
     <row r="17">
@@ -1270,49 +1270,49 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>1056.473753859249</v>
+        <v>1712.585464114045</v>
       </c>
       <c r="C17" t="n">
-        <v>20427.3418483414</v>
+        <v>2742.442370699913</v>
       </c>
       <c r="D17" t="n">
-        <v>2381.065679515827</v>
+        <v>368.731752676257</v>
       </c>
       <c r="E17" t="n">
-        <v>113.4249949517034</v>
+        <v>415783.7487599998</v>
       </c>
       <c r="F17" t="n">
-        <v>81501.24624526063</v>
+        <v>66.01616609003284</v>
       </c>
       <c r="G17" t="n">
-        <v>35.8</v>
+        <v>37.3</v>
       </c>
       <c r="H17" t="n">
-        <v>15.9825267133037</v>
+        <v>20.9002272404741</v>
       </c>
       <c r="I17" t="n">
-        <v>2.573634099879445</v>
+        <v>20.58907279903562</v>
       </c>
       <c r="J17" t="n">
-        <v>109.9937054332045</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K17" t="n">
-        <v>44335.91368807349</v>
+        <v>123470.762073457</v>
       </c>
       <c r="L17" t="n">
-        <v>2003.262820579908</v>
+        <v>12349.96091436373</v>
       </c>
       <c r="M17" t="n">
-        <v>1077875.228372509</v>
+        <v>5170690.3577638</v>
       </c>
       <c r="N17" t="n">
-        <v>11.57791462094847</v>
+        <v>37.03779183275061</v>
       </c>
       <c r="O17" t="n">
-        <v>315.8466231128759</v>
+        <v>472.5165750537873</v>
       </c>
       <c r="P17" t="n">
-        <v>1122077.832194185</v>
+        <v>547666.4329575079</v>
       </c>
     </row>
     <row r="18">
@@ -1320,22 +1320,22 @@
         <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>5714.508054533066</v>
+        <v>2794.500284289297</v>
       </c>
       <c r="C18" t="n">
-        <v>20441.32264</v>
+        <v>6823.807582062947</v>
       </c>
       <c r="D18" t="n">
-        <v>18620.07860285665</v>
+        <v>275.8950348038661</v>
       </c>
       <c r="E18" t="n">
-        <v>39.69874823309618</v>
+        <v>267414.72804</v>
       </c>
       <c r="F18" t="n">
-        <v>377439.3726886988</v>
+        <v>21.08181093591994</v>
       </c>
       <c r="G18" t="n">
-        <v>28.8591707317073</v>
+        <v>32.08</v>
       </c>
       <c r="H18" t="n">
         <v>121.2195445843775</v>
@@ -1344,25 +1344,25 @@
         <v>82.574144705994</v>
       </c>
       <c r="J18" t="n">
-        <v>273.7681169627428</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K18" t="n">
         <v>390629.3741131953</v>
       </c>
       <c r="L18" t="n">
-        <v>30552.937259517</v>
+        <v>27310.92764247849</v>
       </c>
       <c r="M18" t="n">
-        <v>5170690.3577638</v>
+        <v>3230208.689405594</v>
       </c>
       <c r="N18" t="n">
-        <v>37.03779183275061</v>
+        <v>39.99999999999989</v>
       </c>
       <c r="O18" t="n">
         <v>1578.038753022092</v>
       </c>
       <c r="P18" t="n">
-        <v>5162046.502920203</v>
+        <v>2346273.839680803</v>
       </c>
     </row>
     <row r="19">
@@ -1370,40 +1370,40 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>2528.038589716432</v>
+        <v>3600.580385459475</v>
       </c>
       <c r="C19" t="n">
-        <v>20427.3418483414</v>
+        <v>9562.643569448072</v>
       </c>
       <c r="D19" t="n">
-        <v>11096.21063674203</v>
+        <v>268.0496783639456</v>
       </c>
       <c r="E19" t="n">
-        <v>333.1859226706291</v>
+        <v>229243.9999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>480263.6654099055</v>
+        <v>14.48960162426395</v>
       </c>
       <c r="G19" t="n">
         <v>28.8591707317073</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9999999999989</v>
+        <v>121.2195445843775</v>
       </c>
       <c r="I19" t="n">
-        <v>82.574144705994</v>
+        <v>39.8913285481315</v>
       </c>
       <c r="J19" t="n">
-        <v>675.1104937785783</v>
+        <v>133.2356186205647</v>
       </c>
       <c r="K19" t="n">
-        <v>253392.3988960179</v>
+        <v>390629.3741131953</v>
       </c>
       <c r="L19" t="n">
-        <v>30747.73245897568</v>
+        <v>7929.602119936877</v>
       </c>
       <c r="M19" t="n">
-        <v>3041350.614883801</v>
+        <v>5170690.3577638</v>
       </c>
       <c r="N19" t="n">
         <v>37.03779183275061</v>
@@ -1412,7 +1412,7 @@
         <v>1578.038753022092</v>
       </c>
       <c r="P19" t="n">
-        <v>482329.4836359872</v>
+        <v>900544.6331225443</v>
       </c>
     </row>
     <row r="20">
@@ -1420,49 +1420,49 @@
         <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>20038</v>
+        <v>5714.508054533066</v>
       </c>
       <c r="C20" t="n">
-        <v>25152.81668000001</v>
+        <v>27639.69999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>72911.59999999999</v>
+        <v>287.6630694637465</v>
       </c>
       <c r="E20" t="n">
-        <v>2549.999999999998</v>
+        <v>794230.0365599996</v>
       </c>
       <c r="F20" t="n">
-        <v>4713511.93528</v>
+        <v>31.77450757166394</v>
       </c>
       <c r="G20" t="n">
-        <v>29.9</v>
+        <v>28.8591707317073</v>
       </c>
       <c r="H20" t="n">
-        <v>195.9999999999987</v>
+        <v>125.9999999999992</v>
       </c>
       <c r="I20" t="n">
-        <v>248.9999999999989</v>
+        <v>95.99999999999956</v>
       </c>
       <c r="J20" t="n">
-        <v>1123.199999999998</v>
+        <v>675.1104937785783</v>
       </c>
       <c r="K20" t="n">
-        <v>1264806.999999999</v>
+        <v>390629.3741131953</v>
       </c>
       <c r="L20" t="n">
-        <v>104307.93</v>
+        <v>14603.60341698484</v>
       </c>
       <c r="M20" t="n">
-        <v>2846566.710468096</v>
+        <v>8906174.164799998</v>
       </c>
       <c r="N20" t="n">
         <v>37.03779183275061</v>
       </c>
       <c r="O20" t="n">
-        <v>6308.999999999999</v>
+        <v>1578.038753022092</v>
       </c>
       <c r="P20" t="n">
-        <v>26988496.70547999</v>
+        <v>5162046.502920203</v>
       </c>
     </row>
     <row r="21">
@@ -1470,299 +1470,299 @@
         <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>8680.999999999998</v>
+        <v>5714.508054533066</v>
       </c>
       <c r="C21" t="n">
-        <v>20427.3418483414</v>
+        <v>10600.43340332655</v>
       </c>
       <c r="D21" t="n">
-        <v>32935.89999999999</v>
+        <v>457.6457923286875</v>
       </c>
       <c r="E21" t="n">
-        <v>1673.999999999998</v>
+        <v>135007.8668699999</v>
       </c>
       <c r="F21" t="n">
-        <v>1330729.49304</v>
+        <v>5.952924679148006</v>
       </c>
       <c r="G21" t="n">
         <v>28.8591707317073</v>
       </c>
       <c r="H21" t="n">
-        <v>158.9999999999989</v>
+        <v>126.9999999999992</v>
       </c>
       <c r="I21" t="n">
-        <v>184.9999999999992</v>
+        <v>32.17042624849316</v>
       </c>
       <c r="J21" t="n">
         <v>675.1104937785783</v>
       </c>
       <c r="K21" t="n">
-        <v>810919.9999999998</v>
+        <v>532404</v>
       </c>
       <c r="L21" t="n">
-        <v>182696</v>
+        <v>50169.9141912</v>
       </c>
       <c r="M21" t="n">
-        <v>5519372.853599999</v>
+        <v>9174521.009299997</v>
       </c>
       <c r="N21" t="n">
-        <v>38.99999999999991</v>
+        <v>37.03779183275061</v>
       </c>
       <c r="O21" t="n">
-        <v>2500</v>
+        <v>2097</v>
       </c>
       <c r="P21" t="n">
-        <v>5162046.502920203</v>
+        <v>17566777.10018999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>11634</v>
+        <v>5316.102679715117</v>
       </c>
       <c r="C22" t="n">
-        <v>29031.0083701363</v>
+        <v>20804.7701584703</v>
       </c>
       <c r="D22" t="n">
-        <v>38299.68163489593</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E22" t="n">
-        <v>1288.588016602401</v>
+        <v>692.2186286246737</v>
       </c>
       <c r="F22" t="n">
-        <v>2114276.549986417</v>
+        <v>786293.0504705467</v>
       </c>
       <c r="G22" t="n">
-        <v>27.9654227272727</v>
+        <v>28</v>
       </c>
       <c r="H22" t="n">
-        <v>123.3066910530735</v>
+        <v>90.46358267621305</v>
       </c>
       <c r="I22" t="n">
-        <v>171.9999999999993</v>
+        <v>70.48069954407941</v>
       </c>
       <c r="J22" t="n">
-        <v>201.0999999999998</v>
+        <v>497.8528815868382</v>
       </c>
       <c r="K22" t="n">
-        <v>14598.99999999995</v>
+        <v>61373.67232632842</v>
       </c>
       <c r="L22" t="n">
-        <v>23998.86785081873</v>
+        <v>12579.47779916077</v>
       </c>
       <c r="M22" t="n">
-        <v>286065.1040134371</v>
+        <v>3234408.767199999</v>
       </c>
       <c r="N22" t="n">
-        <v>10.99999999999997</v>
+        <v>28.51419426482713</v>
       </c>
       <c r="O22" t="n">
-        <v>2915.76176821649</v>
+        <v>801.1041567238514</v>
       </c>
       <c r="P22" t="n">
-        <v>32418265.19999999</v>
+        <v>1155335.285561846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>11428.02254636582</v>
+        <v>21239</v>
       </c>
       <c r="C23" t="n">
-        <v>34591.61742</v>
+        <v>23604.91093</v>
       </c>
       <c r="D23" t="n">
-        <v>16196.06113338833</v>
+        <v>64664.39999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>593.7048669751483</v>
+        <v>2077</v>
       </c>
       <c r="F23" t="n">
-        <v>198628.8662816901</v>
+        <v>4676977.19118</v>
       </c>
       <c r="G23" t="n">
-        <v>27.9654227272727</v>
+        <v>30.2</v>
       </c>
       <c r="H23" t="n">
-        <v>123.3066910530735</v>
+        <v>300.9999999999981</v>
       </c>
       <c r="I23" t="n">
-        <v>132.0329562209512</v>
+        <v>303.9999999999987</v>
       </c>
       <c r="J23" t="n">
-        <v>169.2999999999999</v>
+        <v>783.7999999999988</v>
       </c>
       <c r="K23" t="n">
-        <v>19625.99999999998</v>
+        <v>202571</v>
       </c>
       <c r="L23" t="n">
-        <v>14867.20570471301</v>
+        <v>87368.90999999997</v>
       </c>
       <c r="M23" t="n">
-        <v>527779.8131531713</v>
+        <v>8408723.879599998</v>
       </c>
       <c r="N23" t="n">
-        <v>11.99999999999997</v>
+        <v>34.9999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>2915.76176821649</v>
+        <v>4502</v>
       </c>
       <c r="P23" t="n">
-        <v>25333054.93499543</v>
+        <v>19397519.88531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>16843</v>
+        <v>15029</v>
       </c>
       <c r="C24" t="n">
-        <v>35339.90803</v>
+        <v>25869.38778</v>
       </c>
       <c r="D24" t="n">
-        <v>73491.59999999999</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E24" t="n">
-        <v>2645.999999999999</v>
+        <v>1123.999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>2114276.549986417</v>
+        <v>866008.9385099995</v>
       </c>
       <c r="G24" t="n">
-        <v>27.9654227272727</v>
+        <v>26.1124013157894</v>
       </c>
       <c r="H24" t="n">
-        <v>164.9999999999989</v>
+        <v>124.9999999999992</v>
       </c>
       <c r="I24" t="n">
-        <v>232.999999999999</v>
+        <v>194.9999999999991</v>
       </c>
       <c r="J24" t="n">
-        <v>188.4999999999993</v>
+        <v>257.8755753993303</v>
       </c>
       <c r="K24" t="n">
-        <v>1592.999999999883</v>
+        <v>2327.949027416018</v>
       </c>
       <c r="L24" t="n">
-        <v>37819.7689054316</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M24" t="n">
-        <v>385565.2847686771</v>
+        <v>352889.0944825563</v>
       </c>
       <c r="N24" t="n">
-        <v>7.999999999999967</v>
+        <v>11.99999999999995</v>
       </c>
       <c r="O24" t="n">
-        <v>5536</v>
+        <v>3211</v>
       </c>
       <c r="P24" t="n">
-        <v>37484508.02855</v>
+        <v>9430951.714799995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>11428.02254636582</v>
+        <v>9192</v>
       </c>
       <c r="C25" t="n">
-        <v>29031.0083701363</v>
+        <v>21205.02672</v>
       </c>
       <c r="D25" t="n">
-        <v>38299.68163489593</v>
+        <v>59994</v>
       </c>
       <c r="E25" t="n">
-        <v>1288.588016602401</v>
+        <v>1042.999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>2114276.549986417</v>
+        <v>1194600.348719999</v>
       </c>
       <c r="G25" t="n">
-        <v>29.41</v>
+        <v>26.1124013157894</v>
       </c>
       <c r="H25" t="n">
-        <v>123.3066910530735</v>
+        <v>140.9999999999991</v>
       </c>
       <c r="I25" t="n">
-        <v>230.999999999999</v>
+        <v>92.99999999999956</v>
       </c>
       <c r="J25" t="n">
-        <v>233.2999999999996</v>
+        <v>563.5999999999992</v>
       </c>
       <c r="K25" t="n">
-        <v>383.99999999993</v>
+        <v>61373.67232632842</v>
       </c>
       <c r="L25" t="n">
-        <v>37867.99999999999</v>
+        <v>57654.41999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>397106.5589331404</v>
+        <v>8271274.176000002</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9999999999999942</v>
+        <v>36.99999999999991</v>
       </c>
       <c r="O25" t="n">
-        <v>2915.76176821649</v>
+        <v>3090</v>
       </c>
       <c r="P25" t="n">
-        <v>32139963.46512001</v>
+        <v>7029925.234559999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>33537</v>
+        <v>11442</v>
       </c>
       <c r="C26" t="n">
-        <v>29031.0083701363</v>
+        <v>20804.7701584703</v>
       </c>
       <c r="D26" t="n">
-        <v>58200</v>
+        <v>69421.59999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>2876.999999999997</v>
+        <v>104.0508328856842</v>
       </c>
       <c r="F26" t="n">
-        <v>10541809.01215</v>
+        <v>3389505.0557</v>
       </c>
       <c r="G26" t="n">
-        <v>31.4</v>
+        <v>26.1124013157894</v>
       </c>
       <c r="H26" t="n">
-        <v>306.999999999998</v>
+        <v>164.9999999999989</v>
       </c>
       <c r="I26" t="n">
-        <v>198.9999999999992</v>
+        <v>248.999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>515.0943407417118</v>
+        <v>497.8528815868382</v>
       </c>
       <c r="K26" t="n">
-        <v>595570.9999999998</v>
+        <v>19594.91258346423</v>
       </c>
       <c r="L26" t="n">
-        <v>59771.34999999999</v>
+        <v>57789.99999999995</v>
       </c>
       <c r="M26" t="n">
-        <v>1725327.064726412</v>
+        <v>708166.2951166953</v>
       </c>
       <c r="N26" t="n">
-        <v>90.9999999999998</v>
+        <v>5.999999999999963</v>
       </c>
       <c r="O26" t="n">
-        <v>9371</v>
+        <v>3403</v>
       </c>
       <c r="P26" t="n">
-        <v>79424596.73175</v>
+        <v>5939939.10276</v>
       </c>
     </row>
     <row r="27">
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>5316.102679715117</v>
+        <v>2850.946154295078</v>
       </c>
       <c r="C27" t="n">
         <v>20804.7701584703</v>
@@ -1785,34 +1785,34 @@
         <v>786293.0504705467</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>26.1124013157894</v>
       </c>
       <c r="H27" t="n">
         <v>90.46358267621305</v>
       </c>
       <c r="I27" t="n">
-        <v>70.48069954407941</v>
+        <v>38.93405059763593</v>
       </c>
       <c r="J27" t="n">
         <v>497.8528815868382</v>
       </c>
       <c r="K27" t="n">
-        <v>61373.67232632842</v>
+        <v>15515.3670540922</v>
       </c>
       <c r="L27" t="n">
-        <v>12579.47779916077</v>
+        <v>35901.05</v>
       </c>
       <c r="M27" t="n">
-        <v>3234408.767199999</v>
+        <v>2185490.020395464</v>
       </c>
       <c r="N27" t="n">
         <v>28.51419426482713</v>
       </c>
       <c r="O27" t="n">
-        <v>801.1041567238514</v>
+        <v>1635.642762831732</v>
       </c>
       <c r="P27" t="n">
-        <v>1155335.285561846</v>
+        <v>1301161.105164705</v>
       </c>
     </row>
     <row r="28">
@@ -1820,49 +1820,49 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>21239</v>
+        <v>2608.145795000716</v>
       </c>
       <c r="C28" t="n">
-        <v>23604.91093</v>
+        <v>22823.19152</v>
       </c>
       <c r="D28" t="n">
-        <v>64664.39999999999</v>
+        <v>7865.83285463539</v>
       </c>
       <c r="E28" t="n">
-        <v>2077</v>
+        <v>318.6556757124091</v>
       </c>
       <c r="F28" t="n">
-        <v>4676977.191179999</v>
+        <v>310464.0523193225</v>
       </c>
       <c r="G28" t="n">
-        <v>30.2</v>
+        <v>27.3</v>
       </c>
       <c r="H28" t="n">
-        <v>300.9999999999981</v>
+        <v>90.46358267621305</v>
       </c>
       <c r="I28" t="n">
-        <v>303.9999999999987</v>
+        <v>9.438557720639002</v>
       </c>
       <c r="J28" t="n">
-        <v>783.7999999999988</v>
+        <v>89.06238011880001</v>
       </c>
       <c r="K28" t="n">
-        <v>202571</v>
+        <v>86576.99999999991</v>
       </c>
       <c r="L28" t="n">
-        <v>87368.90999999997</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M28" t="n">
-        <v>8408723.879599998</v>
+        <v>2185490.020395464</v>
       </c>
       <c r="N28" t="n">
-        <v>34.9999999999999</v>
+        <v>28.51419426482713</v>
       </c>
       <c r="O28" t="n">
-        <v>4502</v>
+        <v>784.9745428300824</v>
       </c>
       <c r="P28" t="n">
-        <v>19397519.88531</v>
+        <v>2038235.528024235</v>
       </c>
     </row>
     <row r="29">
@@ -1870,49 +1870,49 @@
         <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>15029</v>
+        <v>6011.999999999998</v>
       </c>
       <c r="C29" t="n">
-        <v>25869.38778</v>
+        <v>20804.7701584703</v>
       </c>
       <c r="D29" t="n">
-        <v>18102.33886557139</v>
+        <v>20455.99999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>1123.999999999999</v>
+        <v>692.2186286246737</v>
       </c>
       <c r="F29" t="n">
-        <v>866008.9385099995</v>
+        <v>899043.3909999999</v>
       </c>
       <c r="G29" t="n">
-        <v>26.1124013157894</v>
+        <v>37.19</v>
       </c>
       <c r="H29" t="n">
-        <v>124.9999999999992</v>
+        <v>147.9999999999991</v>
       </c>
       <c r="I29" t="n">
-        <v>194.9999999999991</v>
+        <v>70.48069954407941</v>
       </c>
       <c r="J29" t="n">
-        <v>257.8755753993303</v>
+        <v>618.4999999999993</v>
       </c>
       <c r="K29" t="n">
-        <v>2327.949027416018</v>
+        <v>29004.37737062724</v>
       </c>
       <c r="L29" t="n">
         <v>29602.9087374105</v>
       </c>
       <c r="M29" t="n">
-        <v>352889.0944825563</v>
+        <v>2652645.517799999</v>
       </c>
       <c r="N29" t="n">
-        <v>11.99999999999995</v>
+        <v>28.51419426482713</v>
       </c>
       <c r="O29" t="n">
-        <v>3211</v>
+        <v>1635.642762831732</v>
       </c>
       <c r="P29" t="n">
-        <v>9430951.714799995</v>
+        <v>6067714.946849998</v>
       </c>
     </row>
     <row r="30">
@@ -1920,49 +1920,49 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>9192</v>
+        <v>5316.102679715117</v>
       </c>
       <c r="C30" t="n">
-        <v>21205.02672</v>
+        <v>20804.7701584703</v>
       </c>
       <c r="D30" t="n">
-        <v>59994</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E30" t="n">
-        <v>1042.999999999999</v>
+        <v>1097.999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1194600.348719999</v>
+        <v>786293.0504705467</v>
       </c>
       <c r="G30" t="n">
-        <v>26.1124013157894</v>
+        <v>51.2</v>
       </c>
       <c r="H30" t="n">
-        <v>140.9999999999991</v>
+        <v>122.9999999999992</v>
       </c>
       <c r="I30" t="n">
-        <v>92.99999999999956</v>
+        <v>70.48069954407941</v>
       </c>
       <c r="J30" t="n">
-        <v>563.5999999999992</v>
+        <v>497.8528815868382</v>
       </c>
       <c r="K30" t="n">
         <v>61373.67232632842</v>
       </c>
       <c r="L30" t="n">
-        <v>57654.41999999999</v>
+        <v>29602.9087374105</v>
       </c>
       <c r="M30" t="n">
-        <v>8271274.176000002</v>
+        <v>2725337.620799998</v>
       </c>
       <c r="N30" t="n">
-        <v>36.99999999999991</v>
+        <v>28.51419426482713</v>
       </c>
       <c r="O30" t="n">
-        <v>3090</v>
+        <v>1635.642762831732</v>
       </c>
       <c r="P30" t="n">
-        <v>7029925.234559999</v>
+        <v>776217.685124798</v>
       </c>
     </row>
     <row r="31">
@@ -1970,49 +1970,49 @@
         <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>11442</v>
+        <v>5316.102679715117</v>
       </c>
       <c r="C31" t="n">
         <v>20804.7701584703</v>
       </c>
       <c r="D31" t="n">
-        <v>69421.59999999999</v>
+        <v>18102.33886557139</v>
       </c>
       <c r="E31" t="n">
-        <v>104.0508328856842</v>
+        <v>692.2186286246737</v>
       </c>
       <c r="F31" t="n">
-        <v>3389505.055700001</v>
+        <v>411275.6384501042</v>
       </c>
       <c r="G31" t="n">
-        <v>26.1124013157894</v>
+        <v>29.58</v>
       </c>
       <c r="H31" t="n">
-        <v>164.9999999999989</v>
+        <v>90.46358267621305</v>
       </c>
       <c r="I31" t="n">
-        <v>248.999999999999</v>
+        <v>113.9999999999995</v>
       </c>
       <c r="J31" t="n">
         <v>497.8528815868382</v>
       </c>
       <c r="K31" t="n">
-        <v>19594.91258346423</v>
+        <v>116218</v>
       </c>
       <c r="L31" t="n">
-        <v>57789.99999999995</v>
+        <v>29804.74999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>708166.2951166953</v>
+        <v>5228156.335899999</v>
       </c>
       <c r="N31" t="n">
-        <v>5.999999999999963</v>
+        <v>38.99999999999991</v>
       </c>
       <c r="O31" t="n">
-        <v>3403</v>
+        <v>1635.642762831732</v>
       </c>
       <c r="P31" t="n">
-        <v>5939939.102759998</v>
+        <v>3002048.203665785</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/input with changes.xlsx
+++ b/migforecasting/clustering/for paper/input with changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,1501 +517,3001 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2088.32491374875</v>
+        <v>3074.994130329068</v>
       </c>
       <c r="C2" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D2" t="n">
-        <v>3746.599999999997</v>
+        <v>9990.927465433009</v>
       </c>
       <c r="E2" t="n">
-        <v>44.99999999999995</v>
+        <v>881.0076688693483</v>
       </c>
       <c r="F2" t="n">
-        <v>84821.61661287429</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G2" t="n">
-        <v>35.4380373831775</v>
+        <v>39.4</v>
       </c>
       <c r="H2" t="n">
-        <v>54.0725142426617</v>
+        <v>52.28189156677908</v>
       </c>
       <c r="I2" t="n">
-        <v>9.999999999999948</v>
+        <v>9.829484154314454</v>
       </c>
       <c r="J2" t="n">
-        <v>220.5462165225156</v>
+        <v>338.9834683803142</v>
       </c>
       <c r="K2" t="n">
-        <v>32749.97834610207</v>
+        <v>35709.00890922388</v>
       </c>
       <c r="L2" t="n">
-        <v>14259.05628514748</v>
+        <v>73632.72488415125</v>
       </c>
       <c r="M2" t="n">
-        <v>633508.489027101</v>
+        <v>744853.9651349846</v>
       </c>
       <c r="N2" t="n">
-        <v>22.70687713300876</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O2" t="n">
-        <v>672.9999999999999</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P2" t="n">
-        <v>286032.9961373269</v>
+        <v>356159.9599555623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2386</v>
+        <v>10892</v>
       </c>
       <c r="C3" t="n">
-        <v>19210.2288312461</v>
+        <v>21988.19528</v>
       </c>
       <c r="D3" t="n">
-        <v>10592.2</v>
+        <v>37427.89999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>377.9999999999997</v>
+        <v>881.0076688693483</v>
       </c>
       <c r="F3" t="n">
-        <v>398404.10684</v>
+        <v>2824760.72811</v>
       </c>
       <c r="G3" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H3" t="n">
-        <v>54.0725142426617</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I3" t="n">
-        <v>28.22123465014427</v>
+        <v>242.999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>800.9999999999995</v>
+        <v>657.7753259148542</v>
       </c>
       <c r="K3" t="n">
-        <v>112137</v>
+        <v>959880.0000000002</v>
       </c>
       <c r="L3" t="n">
-        <v>14259.05628514748</v>
+        <v>322825.6199999999</v>
       </c>
       <c r="M3" t="n">
-        <v>1610842.1836</v>
+        <v>12665201.6312</v>
       </c>
       <c r="N3" t="n">
-        <v>22.70687713300876</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O3" t="n">
-        <v>624.0000000000001</v>
+        <v>3185</v>
       </c>
       <c r="P3" t="n">
-        <v>1492496.07924</v>
+        <v>12405299.01264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6906.999999999997</v>
+        <v>7235.999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D4" t="n">
-        <v>45679.39999999999</v>
+        <v>19721.96170086985</v>
       </c>
       <c r="E4" t="n">
-        <v>943.9999999999995</v>
+        <v>2286.999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1135992.20592</v>
+        <v>1199846.21903</v>
       </c>
       <c r="G4" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H4" t="n">
-        <v>86.99999999999939</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I4" t="n">
-        <v>196.9999999999992</v>
+        <v>77.80585983126005</v>
       </c>
       <c r="J4" t="n">
-        <v>2450.999999999999</v>
+        <v>664.7999999999993</v>
       </c>
       <c r="K4" t="n">
-        <v>49269.99999999993</v>
+        <v>208310</v>
       </c>
       <c r="L4" t="n">
-        <v>14259.05628514748</v>
+        <v>73217.65388798401</v>
       </c>
       <c r="M4" t="n">
-        <v>1321756.113011211</v>
+        <v>2545166.61841985</v>
       </c>
       <c r="N4" t="n">
-        <v>26.99999999999994</v>
+        <v>40.99999999999991</v>
       </c>
       <c r="O4" t="n">
-        <v>1960</v>
+        <v>2013.999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>1961160.027659998</v>
+        <v>5013077.512856801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4568.999999999998</v>
+        <v>5648.558240191881</v>
       </c>
       <c r="C5" t="n">
-        <v>21418.87329</v>
+        <v>21712.38264</v>
       </c>
       <c r="D5" t="n">
-        <v>7762.675320911603</v>
+        <v>10065.87483001023</v>
       </c>
       <c r="E5" t="n">
-        <v>130.9999999999998</v>
+        <v>881.0076688693483</v>
       </c>
       <c r="F5" t="n">
-        <v>153719.0900088869</v>
+        <v>693877.7992514279</v>
       </c>
       <c r="G5" t="n">
-        <v>35.4380373831775</v>
+        <v>38.2</v>
       </c>
       <c r="H5" t="n">
-        <v>103.9999999999993</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I5" t="n">
-        <v>2.999999999999976</v>
+        <v>77.80585983126005</v>
       </c>
       <c r="J5" t="n">
-        <v>479.1465622563072</v>
+        <v>657.7753259148542</v>
       </c>
       <c r="K5" t="n">
-        <v>106498</v>
+        <v>16451.42835168915</v>
       </c>
       <c r="L5" t="n">
-        <v>19137.90999999999</v>
+        <v>44614.97432854872</v>
       </c>
       <c r="M5" t="n">
-        <v>3427876.605499998</v>
+        <v>4968189.53784</v>
       </c>
       <c r="N5" t="n">
-        <v>50.99999999999989</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O5" t="n">
-        <v>1218</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P5" t="n">
-        <v>3524494.848899999</v>
+        <v>2603925.131103361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>2093.999999999999</v>
+        <v>5648.558240191881</v>
       </c>
       <c r="C6" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D6" t="n">
-        <v>7762.675320911603</v>
+        <v>19721.96170086985</v>
       </c>
       <c r="E6" t="n">
-        <v>449.9999999999994</v>
+        <v>1185.999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>374829.3789556442</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G6" t="n">
-        <v>35.4380373831775</v>
+        <v>36.5</v>
       </c>
       <c r="H6" t="n">
-        <v>59.99999999999958</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I6" t="n">
-        <v>28.22123465014427</v>
+        <v>91.99999999999964</v>
       </c>
       <c r="J6" t="n">
-        <v>647.7999999999992</v>
+        <v>873.5999999999993</v>
       </c>
       <c r="K6" t="n">
-        <v>32749.97834610207</v>
+        <v>127583</v>
       </c>
       <c r="L6" t="n">
-        <v>20804.14999999998</v>
+        <v>69713.06049263012</v>
       </c>
       <c r="M6" t="n">
-        <v>1533618.088899999</v>
+        <v>5517088.419299998</v>
       </c>
       <c r="N6" t="n">
-        <v>22.70687713300876</v>
+        <v>38.99999999999991</v>
       </c>
       <c r="O6" t="n">
-        <v>676.9999999999995</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P6" t="n">
-        <v>1868542.215959998</v>
+        <v>6142682.320539998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>2815</v>
+        <v>5648.558240191881</v>
       </c>
       <c r="C7" t="n">
-        <v>20675.74732</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D7" t="n">
-        <v>7762.675320911603</v>
+        <v>19721.96170086985</v>
       </c>
       <c r="E7" t="n">
-        <v>387.9999999999998</v>
+        <v>881.0076688693483</v>
       </c>
       <c r="F7" t="n">
-        <v>509272.59584</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G7" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H7" t="n">
-        <v>54.0725142426617</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I7" t="n">
-        <v>31.99999999999986</v>
+        <v>77.80585983126005</v>
       </c>
       <c r="J7" t="n">
-        <v>1231.999999999999</v>
+        <v>889.2999999999993</v>
       </c>
       <c r="K7" t="n">
-        <v>47001.99999999999</v>
+        <v>32318.51938735506</v>
       </c>
       <c r="L7" t="n">
-        <v>14259.05628514748</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M7" t="n">
-        <v>2998146.312399999</v>
+        <v>1210639.591260719</v>
       </c>
       <c r="N7" t="n">
-        <v>22.70687713300876</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O7" t="n">
-        <v>1535</v>
+        <v>1646</v>
       </c>
       <c r="P7" t="n">
-        <v>4597855.159240001</v>
+        <v>3774322.023712398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2624.999999999997</v>
+        <v>5648.558240191881</v>
       </c>
       <c r="C8" t="n">
-        <v>19210.2288312461</v>
+        <v>22498.42608</v>
       </c>
       <c r="D8" t="n">
-        <v>12773.49999999999</v>
+        <v>7962.048068103434</v>
       </c>
       <c r="E8" t="n">
-        <v>480.9999999999994</v>
+        <v>1088.999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>477102.6102099996</v>
+        <v>1094086.860592877</v>
       </c>
       <c r="G8" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H8" t="n">
-        <v>83.99999999999942</v>
+        <v>59.25281044234961</v>
       </c>
       <c r="I8" t="n">
-        <v>66.9999999999997</v>
+        <v>29.48845246294337</v>
       </c>
       <c r="J8" t="n">
-        <v>586.0999999999991</v>
+        <v>657.7753259148542</v>
       </c>
       <c r="K8" t="n">
-        <v>13303.99999999998</v>
+        <v>19293.12959577187</v>
       </c>
       <c r="L8" t="n">
-        <v>31991.30999999998</v>
+        <v>120574.1931586198</v>
       </c>
       <c r="M8" t="n">
-        <v>2339528.865499998</v>
+        <v>2966461.923983127</v>
       </c>
       <c r="N8" t="n">
-        <v>40.99999999999988</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O8" t="n">
-        <v>960.9999999999995</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P8" t="n">
-        <v>623372.2312366152</v>
+        <v>2143244.860953773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>2241.999999999999</v>
+        <v>2960.350604343311</v>
       </c>
       <c r="C9" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D9" t="n">
-        <v>7762.675320911603</v>
+        <v>9851.633843768119</v>
       </c>
       <c r="E9" t="n">
-        <v>281.9402175474014</v>
+        <v>48.95235141204601</v>
       </c>
       <c r="F9" t="n">
-        <v>374829.3789556442</v>
+        <v>193740.1855412222</v>
       </c>
       <c r="G9" t="n">
-        <v>35.4380373831775</v>
+        <v>31.1</v>
       </c>
       <c r="H9" t="n">
-        <v>54.99999999999961</v>
+        <v>125.6772308691166</v>
       </c>
       <c r="I9" t="n">
-        <v>34.99999999999984</v>
+        <v>28.25976694365406</v>
       </c>
       <c r="J9" t="n">
-        <v>982.8999999999988</v>
+        <v>657.7753259148542</v>
       </c>
       <c r="K9" t="n">
-        <v>32749.97834610207</v>
+        <v>32908.41124060288</v>
       </c>
       <c r="L9" t="n">
-        <v>14259.05628514748</v>
+        <v>53710.52993791885</v>
       </c>
       <c r="M9" t="n">
-        <v>1321756.113011211</v>
+        <v>1569438.3364156</v>
       </c>
       <c r="N9" t="n">
-        <v>24.99999999999993</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O9" t="n">
-        <v>693.9999999999993</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P9" t="n">
-        <v>3344506.716799998</v>
+        <v>468323.8773920315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>2088.32491374875</v>
+        <v>1993.523535196764</v>
       </c>
       <c r="C10" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D10" t="n">
-        <v>7762.675320911603</v>
+        <v>7315.133973857997</v>
       </c>
       <c r="E10" t="n">
-        <v>135.9999999999998</v>
+        <v>316.9664753929983</v>
       </c>
       <c r="F10" t="n">
-        <v>169429.5963573527</v>
+        <v>148631.8126920564</v>
       </c>
       <c r="G10" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H10" t="n">
-        <v>54.0725142426617</v>
+        <v>55.76735100456433</v>
       </c>
       <c r="I10" t="n">
-        <v>8.999999999999947</v>
+        <v>25.80239590507544</v>
       </c>
       <c r="J10" t="n">
-        <v>175.793194243229</v>
+        <v>352.5702089452375</v>
       </c>
       <c r="K10" t="n">
-        <v>61603.99999999992</v>
+        <v>36036.72660547266</v>
       </c>
       <c r="L10" t="n">
-        <v>14259.05628514748</v>
+        <v>42750.75670154808</v>
       </c>
       <c r="M10" t="n">
-        <v>631359.2281276007</v>
+        <v>1131955.221461995</v>
       </c>
       <c r="N10" t="n">
-        <v>31.99999999999989</v>
+        <v>16.36044902140723</v>
       </c>
       <c r="O10" t="n">
-        <v>609.5822332710397</v>
+        <v>609.4671994304493</v>
       </c>
       <c r="P10" t="n">
-        <v>105350.8331371273</v>
+        <v>589514.2929622077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>2088.32491374875</v>
+        <v>5648.558240191881</v>
       </c>
       <c r="C11" t="n">
-        <v>19210.2288312461</v>
+        <v>20815.4167831292</v>
       </c>
       <c r="D11" t="n">
-        <v>7762.675320911603</v>
+        <v>19721.96170086985</v>
       </c>
       <c r="E11" t="n">
-        <v>119.9999999999999</v>
+        <v>329.2045632460098</v>
       </c>
       <c r="F11" t="n">
-        <v>374829.3789556442</v>
+        <v>602993.1703343799</v>
       </c>
       <c r="G11" t="n">
-        <v>35.4380373831775</v>
+        <v>30.8316326530612</v>
       </c>
       <c r="H11" t="n">
-        <v>20.99999999999986</v>
+        <v>67.38554913051524</v>
       </c>
       <c r="I11" t="n">
-        <v>28.22123465014427</v>
+        <v>77.80585983126005</v>
       </c>
       <c r="J11" t="n">
-        <v>159.6987198736483</v>
+        <v>250.9550904344663</v>
       </c>
       <c r="K11" t="n">
-        <v>32749.97834610207</v>
+        <v>137192.9999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>14259.05628514748</v>
+        <v>146352.9999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>1321756.113011211</v>
+        <v>2452949.045903694</v>
       </c>
       <c r="N11" t="n">
-        <v>22.70687713300876</v>
+        <v>35.75225116085909</v>
       </c>
       <c r="O11" t="n">
-        <v>609.5822332710397</v>
+        <v>1599.139320430128</v>
       </c>
       <c r="P11" t="n">
-        <v>151489.0533602829</v>
+        <v>341793.8556147451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1056.473753859249</v>
+        <v>10206.30689960662</v>
       </c>
       <c r="C12" t="n">
-        <v>20427.3418483414</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D12" t="n">
-        <v>2381.065679515827</v>
+        <v>45468.34750546934</v>
       </c>
       <c r="E12" t="n">
-        <v>113.4249949517034</v>
+        <v>1645.641044300649</v>
       </c>
       <c r="F12" t="n">
-        <v>81501.24624526063</v>
+        <v>2362294.764186412</v>
       </c>
       <c r="G12" t="n">
-        <v>35.8</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H12" t="n">
-        <v>15.9825267133037</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I12" t="n">
-        <v>2.573634099879445</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J12" t="n">
-        <v>109.9937054332045</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K12" t="n">
-        <v>44335.91368807349</v>
+        <v>10711.99999999995</v>
       </c>
       <c r="L12" t="n">
-        <v>2003.262820579908</v>
+        <v>8164.16900863609</v>
       </c>
       <c r="M12" t="n">
-        <v>1077875.228372509</v>
+        <v>54366.53152584554</v>
       </c>
       <c r="N12" t="n">
-        <v>11.57791462094847</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8466231128759</v>
+        <v>2896.85900668096</v>
       </c>
       <c r="P12" t="n">
-        <v>1122077.832194185</v>
+        <v>8379778.190979367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>5714.508054533066</v>
+        <v>24379.99999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>20441.32264</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D13" t="n">
-        <v>18620.07860285665</v>
+        <v>207240.7</v>
       </c>
       <c r="E13" t="n">
-        <v>39.69874823309618</v>
+        <v>1859.999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>377439.3726886988</v>
+        <v>5926777.310929999</v>
       </c>
       <c r="G13" t="n">
-        <v>28.8591707317073</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H13" t="n">
-        <v>121.2195445843775</v>
+        <v>311.9999999999979</v>
       </c>
       <c r="I13" t="n">
-        <v>82.574144705994</v>
+        <v>386.9999999999984</v>
       </c>
       <c r="J13" t="n">
-        <v>273.7681169627428</v>
+        <v>962.7999999999989</v>
       </c>
       <c r="K13" t="n">
-        <v>390629.3741131953</v>
+        <v>8125.999999999992</v>
       </c>
       <c r="L13" t="n">
-        <v>30552.937259517</v>
+        <v>44861.88999999995</v>
       </c>
       <c r="M13" t="n">
-        <v>5170690.3577638</v>
+        <v>216908.5926211885</v>
       </c>
       <c r="N13" t="n">
-        <v>37.03779183275061</v>
+        <v>33.99999999999992</v>
       </c>
       <c r="O13" t="n">
-        <v>1578.038753022092</v>
+        <v>6249</v>
       </c>
       <c r="P13" t="n">
-        <v>5162046.502920203</v>
+        <v>15178335.90336999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2528.038589716432</v>
+        <v>4564.627890295273</v>
       </c>
       <c r="C14" t="n">
-        <v>20427.3418483414</v>
+        <v>37917.46208</v>
       </c>
       <c r="D14" t="n">
-        <v>11096.21063674203</v>
+        <v>16177.06409222068</v>
       </c>
       <c r="E14" t="n">
-        <v>333.1859226706291</v>
+        <v>737.7220073590736</v>
       </c>
       <c r="F14" t="n">
-        <v>480263.6654099055</v>
+        <v>2362294.764186412</v>
       </c>
       <c r="G14" t="n">
-        <v>28.8591707317073</v>
+        <v>29.1</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9999999999989</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I14" t="n">
-        <v>82.574144705994</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J14" t="n">
-        <v>675.1104937785783</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K14" t="n">
-        <v>253392.3988960179</v>
+        <v>4886.999999999982</v>
       </c>
       <c r="L14" t="n">
-        <v>30747.73245897568</v>
+        <v>9316.235897955692</v>
       </c>
       <c r="M14" t="n">
-        <v>3041350.614883801</v>
+        <v>827690.0633385038</v>
       </c>
       <c r="N14" t="n">
-        <v>37.03779183275061</v>
+        <v>21.09561578308453</v>
       </c>
       <c r="O14" t="n">
-        <v>1578.038753022092</v>
+        <v>1143.729881414369</v>
       </c>
       <c r="P14" t="n">
-        <v>482329.4836359872</v>
+        <v>8379778.190979367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>20038</v>
+        <v>14881</v>
       </c>
       <c r="C15" t="n">
-        <v>25152.81668000001</v>
+        <v>35840.74176</v>
       </c>
       <c r="D15" t="n">
-        <v>72911.59999999999</v>
+        <v>52247.99999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>2549.999999999998</v>
+        <v>2190.999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>4713511.93528</v>
+        <v>2740590.23832</v>
       </c>
       <c r="G15" t="n">
-        <v>29.9</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H15" t="n">
-        <v>195.9999999999987</v>
+        <v>240.9999999999985</v>
       </c>
       <c r="I15" t="n">
-        <v>248.9999999999989</v>
+        <v>194.9999999999992</v>
       </c>
       <c r="J15" t="n">
-        <v>1123.199999999998</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K15" t="n">
-        <v>1264806.999999999</v>
+        <v>2243.999999999904</v>
       </c>
       <c r="L15" t="n">
-        <v>104307.93</v>
+        <v>13298.13054705717</v>
       </c>
       <c r="M15" t="n">
-        <v>2846566.710468096</v>
+        <v>184575.0998610461</v>
       </c>
       <c r="N15" t="n">
-        <v>37.03779183275061</v>
+        <v>5.999999999999972</v>
       </c>
       <c r="O15" t="n">
-        <v>6308.999999999999</v>
+        <v>3302</v>
       </c>
       <c r="P15" t="n">
-        <v>26988496.70547999</v>
+        <v>8379778.190979367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8680.999999999998</v>
+        <v>13019.99999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>20427.3418483414</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D16" t="n">
-        <v>32935.89999999999</v>
+        <v>56657.99999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>1673.999999999998</v>
+        <v>1856.999999999998</v>
       </c>
       <c r="F16" t="n">
-        <v>1330729.49304</v>
+        <v>3773107.81368</v>
       </c>
       <c r="G16" t="n">
-        <v>28.8591707317073</v>
+        <v>28.1</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9999999999989</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I16" t="n">
-        <v>184.9999999999992</v>
+        <v>371.9999999999984</v>
       </c>
       <c r="J16" t="n">
-        <v>675.1104937785783</v>
+        <v>995.0999999999988</v>
       </c>
       <c r="K16" t="n">
-        <v>810919.9999999998</v>
+        <v>134789</v>
       </c>
       <c r="L16" t="n">
-        <v>182696</v>
+        <v>68742.99999999997</v>
       </c>
       <c r="M16" t="n">
-        <v>5519372.853599999</v>
+        <v>5197507.516799998</v>
       </c>
       <c r="N16" t="n">
-        <v>38.99999999999991</v>
+        <v>51.99999999999987</v>
       </c>
       <c r="O16" t="n">
-        <v>2500</v>
+        <v>3299</v>
       </c>
       <c r="P16" t="n">
-        <v>5162046.502920203</v>
+        <v>11634696.47015999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1712.585464114045</v>
+        <v>13205</v>
       </c>
       <c r="C17" t="n">
-        <v>2742.442370699913</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D17" t="n">
-        <v>368.731752676257</v>
+        <v>83197.2</v>
       </c>
       <c r="E17" t="n">
-        <v>415783.7487599998</v>
+        <v>1948.999999999998</v>
       </c>
       <c r="F17" t="n">
-        <v>66.01616609003284</v>
+        <v>3114118.228319999</v>
       </c>
       <c r="G17" t="n">
-        <v>37.3</v>
+        <v>28.4</v>
       </c>
       <c r="H17" t="n">
-        <v>20.9002272404741</v>
+        <v>180.9999999999988</v>
       </c>
       <c r="I17" t="n">
-        <v>20.58907279903562</v>
+        <v>201.9999999999991</v>
       </c>
       <c r="J17" t="n">
-        <v>675.1104937785783</v>
+        <v>187.1999999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>123470.762073457</v>
+        <v>770.9999999999872</v>
       </c>
       <c r="L17" t="n">
-        <v>12349.96091436373</v>
+        <v>9709.24003714199</v>
       </c>
       <c r="M17" t="n">
-        <v>5170690.3577638</v>
+        <v>64372.89315283461</v>
       </c>
       <c r="N17" t="n">
-        <v>37.03779183275061</v>
+        <v>22.99999999999994</v>
       </c>
       <c r="O17" t="n">
-        <v>472.5165750537873</v>
+        <v>4264.999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>547666.4329575079</v>
+        <v>14759491.67136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2794.500284289297</v>
+        <v>10206.30689960662</v>
       </c>
       <c r="C18" t="n">
-        <v>6823.807582062947</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D18" t="n">
-        <v>275.8950348038661</v>
+        <v>45468.34750546934</v>
       </c>
       <c r="E18" t="n">
-        <v>267414.72804</v>
+        <v>767.9565158573963</v>
       </c>
       <c r="F18" t="n">
-        <v>21.08181093591994</v>
+        <v>2362294.764186412</v>
       </c>
       <c r="G18" t="n">
-        <v>32.08</v>
+        <v>28.3</v>
       </c>
       <c r="H18" t="n">
-        <v>121.2195445843775</v>
+        <v>130.9999999999991</v>
       </c>
       <c r="I18" t="n">
-        <v>82.574144705994</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J18" t="n">
-        <v>675.1104937785783</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K18" t="n">
-        <v>390629.3741131953</v>
+        <v>28977.99857868786</v>
       </c>
       <c r="L18" t="n">
-        <v>27310.92764247849</v>
+        <v>7770.419617156227</v>
       </c>
       <c r="M18" t="n">
-        <v>3230208.689405594</v>
+        <v>189725.2971247035</v>
       </c>
       <c r="N18" t="n">
-        <v>39.99999999999989</v>
+        <v>21.09561578308453</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.038753022092</v>
+        <v>2896.85900668096</v>
       </c>
       <c r="P18" t="n">
-        <v>2346273.839680803</v>
+        <v>4314559.898301369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>3600.580385459475</v>
+        <v>10206.30689960662</v>
       </c>
       <c r="C19" t="n">
-        <v>9562.643569448072</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D19" t="n">
-        <v>268.0496783639456</v>
+        <v>45468.34750546934</v>
       </c>
       <c r="E19" t="n">
-        <v>229243.9999999999</v>
+        <v>599.8526486067221</v>
       </c>
       <c r="F19" t="n">
-        <v>14.48960162426395</v>
+        <v>2362294.764186412</v>
       </c>
       <c r="G19" t="n">
-        <v>28.8591707317073</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H19" t="n">
-        <v>121.2195445843775</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I19" t="n">
-        <v>39.8913285481315</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J19" t="n">
-        <v>133.2356186205647</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K19" t="n">
-        <v>390629.3741131953</v>
+        <v>28977.99857868786</v>
       </c>
       <c r="L19" t="n">
-        <v>7929.602119936877</v>
+        <v>12523.73190207031</v>
       </c>
       <c r="M19" t="n">
-        <v>5170690.3577638</v>
+        <v>296038.8697442486</v>
       </c>
       <c r="N19" t="n">
-        <v>37.03779183275061</v>
+        <v>21.09561578308453</v>
       </c>
       <c r="O19" t="n">
-        <v>1578.038753022092</v>
+        <v>2896.85900668096</v>
       </c>
       <c r="P19" t="n">
-        <v>900544.6331225443</v>
+        <v>2716676.290443856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>5714.508054533066</v>
+        <v>5085.048428434694</v>
       </c>
       <c r="C20" t="n">
-        <v>27639.69999999999</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D20" t="n">
-        <v>287.6630694637465</v>
+        <v>45468.34750546934</v>
       </c>
       <c r="E20" t="n">
-        <v>794230.0365599996</v>
+        <v>1645.641044300649</v>
       </c>
       <c r="F20" t="n">
-        <v>31.77450757166394</v>
+        <v>971363.0439816914</v>
       </c>
       <c r="G20" t="n">
-        <v>28.8591707317073</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H20" t="n">
-        <v>125.9999999999992</v>
+        <v>122.673448310382</v>
       </c>
       <c r="I20" t="n">
-        <v>95.99999999999956</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J20" t="n">
-        <v>675.1104937785783</v>
+        <v>384.7889277610419</v>
       </c>
       <c r="K20" t="n">
-        <v>390629.3741131953</v>
+        <v>28977.99857868786</v>
       </c>
       <c r="L20" t="n">
-        <v>14603.60341698484</v>
+        <v>24766.25131576219</v>
       </c>
       <c r="M20" t="n">
-        <v>8906174.164799998</v>
+        <v>827690.0633385038</v>
       </c>
       <c r="N20" t="n">
-        <v>37.03779183275061</v>
+        <v>26.99999999999993</v>
       </c>
       <c r="O20" t="n">
-        <v>1578.038753022092</v>
+        <v>2896.85900668096</v>
       </c>
       <c r="P20" t="n">
-        <v>5162046.502920203</v>
+        <v>3895479.787952506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>5714.508054533066</v>
+        <v>10206.30689960662</v>
       </c>
       <c r="C21" t="n">
-        <v>10600.43340332655</v>
+        <v>24430.4175921144</v>
       </c>
       <c r="D21" t="n">
-        <v>457.6457923286875</v>
+        <v>23748.80566444602</v>
       </c>
       <c r="E21" t="n">
-        <v>135007.8668699999</v>
+        <v>633.7152981248437</v>
       </c>
       <c r="F21" t="n">
-        <v>5.952924679148006</v>
+        <v>1174507.864299525</v>
       </c>
       <c r="G21" t="n">
-        <v>28.8591707317073</v>
+        <v>27.6202945590994</v>
       </c>
       <c r="H21" t="n">
-        <v>126.9999999999992</v>
+        <v>50.99999999999968</v>
       </c>
       <c r="I21" t="n">
-        <v>32.17042624849316</v>
+        <v>166.4639870129083</v>
       </c>
       <c r="J21" t="n">
-        <v>675.1104937785783</v>
+        <v>113.8999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>532404</v>
+        <v>7999.999999999944</v>
       </c>
       <c r="L21" t="n">
-        <v>50169.9141912</v>
+        <v>4999.012650449823</v>
       </c>
       <c r="M21" t="n">
-        <v>9174521.009299997</v>
+        <v>62290.28539747879</v>
       </c>
       <c r="N21" t="n">
-        <v>37.03779183275061</v>
+        <v>7.999999999999972</v>
       </c>
       <c r="O21" t="n">
-        <v>2097</v>
+        <v>2896.85900668096</v>
       </c>
       <c r="P21" t="n">
-        <v>17566777.10018999</v>
+        <v>3537435.622458956</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>5316.102679715117</v>
+        <v>2088.32491374875</v>
       </c>
       <c r="C22" t="n">
-        <v>20804.7701584703</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D22" t="n">
-        <v>18102.33886557139</v>
+        <v>3746.599999999997</v>
       </c>
       <c r="E22" t="n">
-        <v>692.2186286246737</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="F22" t="n">
-        <v>786293.0504705467</v>
+        <v>84821.61661287429</v>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H22" t="n">
-        <v>90.46358267621305</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I22" t="n">
-        <v>70.48069954407941</v>
+        <v>9.999999999999948</v>
       </c>
       <c r="J22" t="n">
-        <v>497.8528815868382</v>
+        <v>220.5462165225156</v>
       </c>
       <c r="K22" t="n">
-        <v>61373.67232632842</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L22" t="n">
-        <v>12579.47779916077</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M22" t="n">
-        <v>3234408.767199999</v>
+        <v>633508.489027101</v>
       </c>
       <c r="N22" t="n">
-        <v>28.51419426482713</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O22" t="n">
-        <v>801.1041567238514</v>
+        <v>672.9999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>1155335.285561846</v>
+        <v>286032.9961373269</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>21239</v>
+        <v>2386</v>
       </c>
       <c r="C23" t="n">
-        <v>23604.91093</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D23" t="n">
-        <v>64664.39999999999</v>
+        <v>10592.2</v>
       </c>
       <c r="E23" t="n">
-        <v>2077</v>
+        <v>377.9999999999997</v>
       </c>
       <c r="F23" t="n">
-        <v>4676977.19118</v>
+        <v>398404.10684</v>
       </c>
       <c r="G23" t="n">
-        <v>30.2</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H23" t="n">
-        <v>300.9999999999981</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I23" t="n">
-        <v>303.9999999999987</v>
+        <v>28.22123465014427</v>
       </c>
       <c r="J23" t="n">
-        <v>783.7999999999988</v>
+        <v>800.9999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>202571</v>
+        <v>112137</v>
       </c>
       <c r="L23" t="n">
-        <v>87368.90999999997</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M23" t="n">
-        <v>8408723.879599998</v>
+        <v>1610842.1836</v>
       </c>
       <c r="N23" t="n">
-        <v>34.9999999999999</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O23" t="n">
-        <v>4502</v>
+        <v>624.0000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>19397519.88531</v>
+        <v>1492496.07924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>15029</v>
+        <v>6906.999999999997</v>
       </c>
       <c r="C24" t="n">
-        <v>25869.38778</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D24" t="n">
-        <v>18102.33886557139</v>
+        <v>45679.39999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>1123.999999999999</v>
+        <v>943.9999999999995</v>
       </c>
       <c r="F24" t="n">
-        <v>866008.9385099995</v>
+        <v>1135992.20592</v>
       </c>
       <c r="G24" t="n">
-        <v>26.1124013157894</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H24" t="n">
-        <v>124.9999999999992</v>
+        <v>86.99999999999939</v>
       </c>
       <c r="I24" t="n">
-        <v>194.9999999999991</v>
+        <v>196.9999999999992</v>
       </c>
       <c r="J24" t="n">
-        <v>257.8755753993303</v>
+        <v>2450.999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>2327.949027416018</v>
+        <v>49269.99999999993</v>
       </c>
       <c r="L24" t="n">
-        <v>29602.9087374105</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M24" t="n">
-        <v>352889.0944825563</v>
+        <v>1321756.113011211</v>
       </c>
       <c r="N24" t="n">
-        <v>11.99999999999995</v>
+        <v>26.99999999999994</v>
       </c>
       <c r="O24" t="n">
-        <v>3211</v>
+        <v>1960</v>
       </c>
       <c r="P24" t="n">
-        <v>9430951.714799995</v>
+        <v>1961160.027659998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>9192</v>
+        <v>4568.999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>21205.02672</v>
+        <v>21418.87329</v>
       </c>
       <c r="D25" t="n">
-        <v>59994</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E25" t="n">
-        <v>1042.999999999999</v>
+        <v>130.9999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>1194600.348719999</v>
+        <v>153719.0900088869</v>
       </c>
       <c r="G25" t="n">
-        <v>26.1124013157894</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9999999999991</v>
+        <v>103.9999999999993</v>
       </c>
       <c r="I25" t="n">
-        <v>92.99999999999956</v>
+        <v>2.999999999999976</v>
       </c>
       <c r="J25" t="n">
-        <v>563.5999999999992</v>
+        <v>479.1465622563072</v>
       </c>
       <c r="K25" t="n">
-        <v>61373.67232632842</v>
+        <v>106498</v>
       </c>
       <c r="L25" t="n">
-        <v>57654.41999999999</v>
+        <v>19137.90999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>8271274.176000002</v>
+        <v>3427876.605499998</v>
       </c>
       <c r="N25" t="n">
-        <v>36.99999999999991</v>
+        <v>50.99999999999989</v>
       </c>
       <c r="O25" t="n">
-        <v>3090</v>
+        <v>1218</v>
       </c>
       <c r="P25" t="n">
-        <v>7029925.234559999</v>
+        <v>3524494.848899999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>11442</v>
+        <v>2093.999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>20804.7701584703</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D26" t="n">
-        <v>69421.59999999999</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E26" t="n">
-        <v>104.0508328856842</v>
+        <v>449.9999999999994</v>
       </c>
       <c r="F26" t="n">
-        <v>3389505.0557</v>
+        <v>374829.3789556442</v>
       </c>
       <c r="G26" t="n">
-        <v>26.1124013157894</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H26" t="n">
-        <v>164.9999999999989</v>
+        <v>59.99999999999958</v>
       </c>
       <c r="I26" t="n">
-        <v>248.999999999999</v>
+        <v>28.22123465014427</v>
       </c>
       <c r="J26" t="n">
-        <v>497.8528815868382</v>
+        <v>647.7999999999992</v>
       </c>
       <c r="K26" t="n">
-        <v>19594.91258346423</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L26" t="n">
-        <v>57789.99999999995</v>
+        <v>20804.14999999998</v>
       </c>
       <c r="M26" t="n">
-        <v>708166.2951166953</v>
+        <v>1533618.088899999</v>
       </c>
       <c r="N26" t="n">
-        <v>5.999999999999963</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O26" t="n">
-        <v>3403</v>
+        <v>676.9999999999995</v>
       </c>
       <c r="P26" t="n">
-        <v>5939939.10276</v>
+        <v>1868542.215959998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2850.946154295078</v>
+        <v>2815</v>
       </c>
       <c r="C27" t="n">
-        <v>20804.7701584703</v>
+        <v>20675.74732</v>
       </c>
       <c r="D27" t="n">
-        <v>18102.33886557139</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E27" t="n">
-        <v>692.2186286246737</v>
+        <v>387.9999999999998</v>
       </c>
       <c r="F27" t="n">
-        <v>786293.0504705467</v>
+        <v>509272.59584</v>
       </c>
       <c r="G27" t="n">
-        <v>26.1124013157894</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H27" t="n">
-        <v>90.46358267621305</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I27" t="n">
-        <v>38.93405059763593</v>
+        <v>31.99999999999986</v>
       </c>
       <c r="J27" t="n">
-        <v>497.8528815868382</v>
+        <v>1231.999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>15515.3670540922</v>
+        <v>47001.99999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>35901.05</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M27" t="n">
-        <v>2185490.020395464</v>
+        <v>2998146.312399999</v>
       </c>
       <c r="N27" t="n">
-        <v>28.51419426482713</v>
+        <v>22.70687713300876</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.642762831732</v>
+        <v>1535</v>
       </c>
       <c r="P27" t="n">
-        <v>1301161.105164705</v>
+        <v>4597855.159240001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>2608.145795000716</v>
+        <v>2624.999999999997</v>
       </c>
       <c r="C28" t="n">
-        <v>22823.19152</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D28" t="n">
-        <v>7865.83285463539</v>
+        <v>12773.49999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>318.6556757124091</v>
+        <v>480.9999999999994</v>
       </c>
       <c r="F28" t="n">
-        <v>310464.0523193225</v>
+        <v>477102.6102099996</v>
       </c>
       <c r="G28" t="n">
-        <v>27.3</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46358267621305</v>
+        <v>83.99999999999942</v>
       </c>
       <c r="I28" t="n">
-        <v>9.438557720639002</v>
+        <v>66.9999999999997</v>
       </c>
       <c r="J28" t="n">
-        <v>89.06238011880001</v>
+        <v>586.0999999999991</v>
       </c>
       <c r="K28" t="n">
-        <v>86576.99999999991</v>
+        <v>13303.99999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>29602.9087374105</v>
+        <v>31991.30999999998</v>
       </c>
       <c r="M28" t="n">
-        <v>2185490.020395464</v>
+        <v>2339528.865499998</v>
       </c>
       <c r="N28" t="n">
-        <v>28.51419426482713</v>
+        <v>40.99999999999988</v>
       </c>
       <c r="O28" t="n">
-        <v>784.9745428300824</v>
+        <v>960.9999999999995</v>
       </c>
       <c r="P28" t="n">
-        <v>2038235.528024235</v>
+        <v>623372.2312366152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>6011.999999999998</v>
+        <v>2241.999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>20804.7701584703</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D29" t="n">
-        <v>20455.99999999999</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E29" t="n">
-        <v>692.2186286246737</v>
+        <v>281.9402175474014</v>
       </c>
       <c r="F29" t="n">
-        <v>899043.3909999999</v>
+        <v>374829.3789556442</v>
       </c>
       <c r="G29" t="n">
-        <v>37.19</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H29" t="n">
-        <v>147.9999999999991</v>
+        <v>54.99999999999961</v>
       </c>
       <c r="I29" t="n">
-        <v>70.48069954407941</v>
+        <v>34.99999999999984</v>
       </c>
       <c r="J29" t="n">
-        <v>618.4999999999993</v>
+        <v>982.8999999999988</v>
       </c>
       <c r="K29" t="n">
-        <v>29004.37737062724</v>
+        <v>32749.97834610207</v>
       </c>
       <c r="L29" t="n">
-        <v>29602.9087374105</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M29" t="n">
-        <v>2652645.517799999</v>
+        <v>1321756.113011211</v>
       </c>
       <c r="N29" t="n">
-        <v>28.51419426482713</v>
+        <v>24.99999999999993</v>
       </c>
       <c r="O29" t="n">
-        <v>1635.642762831732</v>
+        <v>693.9999999999993</v>
       </c>
       <c r="P29" t="n">
-        <v>6067714.946849998</v>
+        <v>3344506.716799998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>5316.102679715117</v>
+        <v>2088.32491374875</v>
       </c>
       <c r="C30" t="n">
-        <v>20804.7701584703</v>
+        <v>19210.2288312461</v>
       </c>
       <c r="D30" t="n">
-        <v>18102.33886557139</v>
+        <v>7762.675320911603</v>
       </c>
       <c r="E30" t="n">
-        <v>1097.999999999999</v>
+        <v>135.9999999999998</v>
       </c>
       <c r="F30" t="n">
-        <v>786293.0504705467</v>
+        <v>169429.5963573527</v>
       </c>
       <c r="G30" t="n">
-        <v>51.2</v>
+        <v>35.4380373831775</v>
       </c>
       <c r="H30" t="n">
-        <v>122.9999999999992</v>
+        <v>54.0725142426617</v>
       </c>
       <c r="I30" t="n">
-        <v>70.48069954407941</v>
+        <v>8.999999999999947</v>
       </c>
       <c r="J30" t="n">
-        <v>497.8528815868382</v>
+        <v>175.793194243229</v>
       </c>
       <c r="K30" t="n">
-        <v>61373.67232632842</v>
+        <v>61603.99999999992</v>
       </c>
       <c r="L30" t="n">
-        <v>29602.9087374105</v>
+        <v>14259.05628514748</v>
       </c>
       <c r="M30" t="n">
-        <v>2725337.620799998</v>
+        <v>631359.2281276007</v>
       </c>
       <c r="N30" t="n">
-        <v>28.51419426482713</v>
+        <v>31.99999999999989</v>
       </c>
       <c r="O30" t="n">
-        <v>1635.642762831732</v>
+        <v>609.5822332710397</v>
       </c>
       <c r="P30" t="n">
-        <v>776217.685124798</v>
+        <v>105350.8331371273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2088.32491374875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19210.2288312461</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7762.675320911603</v>
+      </c>
+      <c r="E31" t="n">
+        <v>119.9999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>374829.3789556442</v>
+      </c>
+      <c r="G31" t="n">
+        <v>35.4380373831775</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20.99999999999986</v>
+      </c>
+      <c r="I31" t="n">
+        <v>28.22123465014427</v>
+      </c>
+      <c r="J31" t="n">
+        <v>159.6987198736483</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32749.97834610207</v>
+      </c>
+      <c r="L31" t="n">
+        <v>14259.05628514748</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1321756.113011211</v>
+      </c>
+      <c r="N31" t="n">
+        <v>22.70687713300876</v>
+      </c>
+      <c r="O31" t="n">
+        <v>609.5822332710397</v>
+      </c>
+      <c r="P31" t="n">
+        <v>151489.0533602829</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1056.473753859249</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2381.065679515827</v>
+      </c>
+      <c r="E32" t="n">
+        <v>113.4249949517034</v>
+      </c>
+      <c r="F32" t="n">
+        <v>81501.24624526063</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15.9825267133037</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.573634099879445</v>
+      </c>
+      <c r="J32" t="n">
+        <v>109.9937054332045</v>
+      </c>
+      <c r="K32" t="n">
+        <v>44335.91368807349</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2003.262820579908</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1077875.228372509</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11.57791462094847</v>
+      </c>
+      <c r="O32" t="n">
+        <v>315.8466231128759</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1122077.832194185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5714.508054533066</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20441.32264</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18620.07860285665</v>
+      </c>
+      <c r="E33" t="n">
+        <v>39.69874823309618</v>
+      </c>
+      <c r="F33" t="n">
+        <v>377439.3726886988</v>
+      </c>
+      <c r="G33" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H33" t="n">
+        <v>121.2195445843775</v>
+      </c>
+      <c r="I33" t="n">
+        <v>82.574144705994</v>
+      </c>
+      <c r="J33" t="n">
+        <v>273.7681169627428</v>
+      </c>
+      <c r="K33" t="n">
+        <v>390629.3741131953</v>
+      </c>
+      <c r="L33" t="n">
+        <v>30552.937259517</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5170690.3577638</v>
+      </c>
+      <c r="N33" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1578.038753022092</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5162046.502920203</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2528.038589716432</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11096.21063674203</v>
+      </c>
+      <c r="E34" t="n">
+        <v>333.1859226706291</v>
+      </c>
+      <c r="F34" t="n">
+        <v>480263.6654099055</v>
+      </c>
+      <c r="G34" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H34" t="n">
+        <v>155.9999999999989</v>
+      </c>
+      <c r="I34" t="n">
+        <v>82.574144705994</v>
+      </c>
+      <c r="J34" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K34" t="n">
+        <v>253392.3988960179</v>
+      </c>
+      <c r="L34" t="n">
+        <v>30747.73245897568</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3041350.614883801</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1578.038753022092</v>
+      </c>
+      <c r="P34" t="n">
+        <v>482329.4836359872</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20038</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25152.81668000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>72911.59999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2549.999999999998</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4713511.93528</v>
+      </c>
+      <c r="G35" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>195.9999999999987</v>
+      </c>
+      <c r="I35" t="n">
+        <v>248.9999999999989</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1123.199999999998</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1264806.999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>104307.93</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2846566.710468096</v>
+      </c>
+      <c r="N35" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6308.999999999999</v>
+      </c>
+      <c r="P35" t="n">
+        <v>26988496.70547999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8680.999999999998</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32935.89999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1673.999999999998</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1330729.49304</v>
+      </c>
+      <c r="G36" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H36" t="n">
+        <v>158.9999999999989</v>
+      </c>
+      <c r="I36" t="n">
+        <v>184.9999999999992</v>
+      </c>
+      <c r="J36" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K36" t="n">
+        <v>810919.9999999998</v>
+      </c>
+      <c r="L36" t="n">
+        <v>182696</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5519372.853599999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>38.99999999999991</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5162046.502920203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1712.585464114045</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3380.694845902351</v>
+      </c>
+      <c r="E37" t="n">
+        <v>399.823107204755</v>
+      </c>
+      <c r="F37" t="n">
+        <v>795019.6038440204</v>
+      </c>
+      <c r="G37" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20.9002272404741</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20.58907279903562</v>
+      </c>
+      <c r="J37" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K37" t="n">
+        <v>123470.762073457</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12349.96091436373</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5170690.3577638</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O37" t="n">
+        <v>472.5165750537873</v>
+      </c>
+      <c r="P37" t="n">
+        <v>547666.4329575079</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2794.500284289297</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8411.921930823279</v>
+      </c>
+      <c r="E38" t="n">
+        <v>299.1584241851182</v>
+      </c>
+      <c r="F38" t="n">
+        <v>375973.016231196</v>
+      </c>
+      <c r="G38" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="H38" t="n">
+        <v>121.2195445843775</v>
+      </c>
+      <c r="I38" t="n">
+        <v>82.574144705994</v>
+      </c>
+      <c r="J38" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K38" t="n">
+        <v>390629.3741131953</v>
+      </c>
+      <c r="L38" t="n">
+        <v>27310.92764247849</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3230208.689405594</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39.99999999999989</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1578.038753022092</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2346273.839680803</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3600.580385459475</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11788.171074743</v>
+      </c>
+      <c r="E39" t="n">
+        <v>290.6515495637403</v>
+      </c>
+      <c r="F39" t="n">
+        <v>322306.6985301273</v>
+      </c>
+      <c r="G39" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H39" t="n">
+        <v>121.2195445843775</v>
+      </c>
+      <c r="I39" t="n">
+        <v>39.8913285481315</v>
+      </c>
+      <c r="J39" t="n">
+        <v>133.2356186205647</v>
+      </c>
+      <c r="K39" t="n">
+        <v>390629.3741131953</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7929.602119936877</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5170690.3577638</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1578.038753022092</v>
+      </c>
+      <c r="P39" t="n">
+        <v>900544.6331225443</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5714.508054533066</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20427.3418483414</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27639.69999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>311.9187361171847</v>
+      </c>
+      <c r="F40" t="n">
+        <v>795019.6038440204</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H40" t="n">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="I40" t="n">
+        <v>95.99999999999956</v>
+      </c>
+      <c r="J40" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K40" t="n">
+        <v>390629.3741131953</v>
+      </c>
+      <c r="L40" t="n">
+        <v>14603.60341698484</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8906174.164799998</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1578.038753022092</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5162046.502920203</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5714.508054533066</v>
+      </c>
+      <c r="C41" t="n">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18620.07860285665</v>
+      </c>
+      <c r="E41" t="n">
+        <v>496.2343529137028</v>
+      </c>
+      <c r="F41" t="n">
+        <v>189814.9563193132</v>
+      </c>
+      <c r="G41" t="n">
+        <v>28.8591707317073</v>
+      </c>
+      <c r="H41" t="n">
+        <v>126.9999999999992</v>
+      </c>
+      <c r="I41" t="n">
+        <v>32.17042624849316</v>
+      </c>
+      <c r="J41" t="n">
+        <v>675.1104937785783</v>
+      </c>
+      <c r="K41" t="n">
+        <v>532404</v>
+      </c>
+      <c r="L41" t="n">
+        <v>50169.9141912</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9174521.009299997</v>
+      </c>
+      <c r="N41" t="n">
+        <v>37.03779183275061</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2097</v>
+      </c>
+      <c r="P41" t="n">
+        <v>17566777.10018999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11634</v>
+      </c>
+      <c r="C42" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D42" t="n">
+        <v>38299.68163489593</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2114276.549986417</v>
+      </c>
+      <c r="G42" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H42" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I42" t="n">
+        <v>171.9999999999993</v>
+      </c>
+      <c r="J42" t="n">
+        <v>201.0999999999998</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14598.99999999995</v>
+      </c>
+      <c r="L42" t="n">
+        <v>23998.86785081873</v>
+      </c>
+      <c r="M42" t="n">
+        <v>286065.1040134371</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10.99999999999997</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P42" t="n">
+        <v>32418265.19999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11428.02254636582</v>
+      </c>
+      <c r="C43" t="n">
+        <v>34591.61742</v>
+      </c>
+      <c r="D43" t="n">
+        <v>16196.06113338833</v>
+      </c>
+      <c r="E43" t="n">
+        <v>593.7048669751483</v>
+      </c>
+      <c r="F43" t="n">
+        <v>198628.8662816901</v>
+      </c>
+      <c r="G43" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H43" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I43" t="n">
+        <v>132.0329562209512</v>
+      </c>
+      <c r="J43" t="n">
+        <v>169.2999999999999</v>
+      </c>
+      <c r="K43" t="n">
+        <v>19625.99999999998</v>
+      </c>
+      <c r="L43" t="n">
+        <v>14867.20570471301</v>
+      </c>
+      <c r="M43" t="n">
+        <v>527779.8131531713</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11.99999999999997</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P43" t="n">
+        <v>25333054.93499543</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16843</v>
+      </c>
+      <c r="C44" t="n">
+        <v>35339.90803</v>
+      </c>
+      <c r="D44" t="n">
+        <v>73491.59999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2645.999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2114276.549986417</v>
+      </c>
+      <c r="G44" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H44" t="n">
+        <v>164.9999999999989</v>
+      </c>
+      <c r="I44" t="n">
+        <v>232.999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>188.4999999999993</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1592.999999999883</v>
+      </c>
+      <c r="L44" t="n">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>385565.2847686771</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.999999999999967</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5536</v>
+      </c>
+      <c r="P44" t="n">
+        <v>37484508.02855</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11428.02254636582</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D45" t="n">
+        <v>38299.68163489593</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2114276.549986417</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="H45" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I45" t="n">
+        <v>230.999999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>233.2999999999996</v>
+      </c>
+      <c r="K45" t="n">
+        <v>383.99999999993</v>
+      </c>
+      <c r="L45" t="n">
+        <v>37867.99999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>397106.5589331404</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9999999999999942</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P45" t="n">
+        <v>32139963.46512001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>33537</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D46" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2876.999999999997</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10541809.01215</v>
+      </c>
+      <c r="G46" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>306.999999999998</v>
+      </c>
+      <c r="I46" t="n">
+        <v>198.9999999999992</v>
+      </c>
+      <c r="J46" t="n">
+        <v>515.0943407417118</v>
+      </c>
+      <c r="K46" t="n">
+        <v>595570.9999999998</v>
+      </c>
+      <c r="L46" t="n">
+        <v>59771.34999999999</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1725327.064726412</v>
+      </c>
+      <c r="N46" t="n">
+        <v>90.9999999999998</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9371</v>
+      </c>
+      <c r="P46" t="n">
+        <v>79424596.73175</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18176</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D47" t="n">
+        <v>38299.68163489593</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F47" t="n">
+        <v>646991.0733868184</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H47" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I47" t="n">
+        <v>288.9999999999988</v>
+      </c>
+      <c r="J47" t="n">
+        <v>587.0999999999993</v>
+      </c>
+      <c r="K47" t="n">
+        <v>126725.9999999999</v>
+      </c>
+      <c r="L47" t="n">
+        <v>185639.8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14552482.0845</v>
+      </c>
+      <c r="N47" t="n">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P47" t="n">
+        <v>36429440.00775</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11428.02254636582</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38299.68163489593</v>
+      </c>
+      <c r="E48" t="n">
+        <v>355.0235164134222</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1249615.088024163</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H48" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I48" t="n">
+        <v>71.08994964410475</v>
+      </c>
+      <c r="J48" t="n">
+        <v>515.0943407417118</v>
+      </c>
+      <c r="K48" t="n">
+        <v>242107.9999999999</v>
+      </c>
+      <c r="L48" t="n">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1912868.086399999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>33.99999999999993</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P48" t="n">
+        <v>11441482.03710763</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>11428.02254636582</v>
+      </c>
+      <c r="C49" t="n">
+        <v>42094.55316</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38299.68163489593</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1288.588016602401</v>
+      </c>
+      <c r="F49" t="n">
+        <v>336951.9887098348</v>
+      </c>
+      <c r="G49" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H49" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I49" t="n">
+        <v>132.0329562209512</v>
+      </c>
+      <c r="J49" t="n">
+        <v>203.3999999999996</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5408.999999999983</v>
+      </c>
+      <c r="L49" t="n">
+        <v>15835.47736144592</v>
+      </c>
+      <c r="M49" t="n">
+        <v>350186.7106852828</v>
+      </c>
+      <c r="N49" t="n">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P49" t="n">
+        <v>25333054.93499543</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11428.02254636582</v>
+      </c>
+      <c r="C50" t="n">
+        <v>46334.30152</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19731.27712231221</v>
+      </c>
+      <c r="E50" t="n">
+        <v>281.859886341737</v>
+      </c>
+      <c r="F50" t="n">
+        <v>46631.33518618545</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I50" t="n">
+        <v>132.0329562209512</v>
+      </c>
+      <c r="J50" t="n">
+        <v>515.0943407417118</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4131.999999999992</v>
+      </c>
+      <c r="L50" t="n">
+        <v>12104.47736745133</v>
+      </c>
+      <c r="M50" t="n">
+        <v>231427.5363015925</v>
+      </c>
+      <c r="N50" t="n">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2915.76176821649</v>
+      </c>
+      <c r="P50" t="n">
+        <v>25333054.93499543</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4345.709162841278</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29031.0083701363</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13477.59356794019</v>
+      </c>
+      <c r="E51" t="n">
+        <v>520.5412369034635</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1125572.427968104</v>
+      </c>
+      <c r="G51" t="n">
+        <v>27.9654227272727</v>
+      </c>
+      <c r="H51" t="n">
+        <v>123.3066910530735</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45.86448364135788</v>
+      </c>
+      <c r="J51" t="n">
+        <v>809.8999999999992</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49395.30627568397</v>
+      </c>
+      <c r="L51" t="n">
+        <v>37819.7689054316</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3207835.730899999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>25.90492510159179</v>
+      </c>
+      <c r="O51" t="n">
+        <v>905.6684168899212</v>
+      </c>
+      <c r="P51" t="n">
+        <v>25333054.93499543</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
         <v>5</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B52" t="n">
         <v>5316.102679715117</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C52" t="n">
         <v>20804.7701584703</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D52" t="n">
         <v>18102.33886557139</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E52" t="n">
         <v>692.2186286246737</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F52" t="n">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28</v>
+      </c>
+      <c r="H52" t="n">
+        <v>90.46358267621305</v>
+      </c>
+      <c r="I52" t="n">
+        <v>70.48069954407941</v>
+      </c>
+      <c r="J52" t="n">
+        <v>497.8528815868382</v>
+      </c>
+      <c r="K52" t="n">
+        <v>61373.67232632842</v>
+      </c>
+      <c r="L52" t="n">
+        <v>12579.47779916077</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3234408.767199999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>28.51419426482713</v>
+      </c>
+      <c r="O52" t="n">
+        <v>801.1041567238514</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1155335.285561846</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>21239</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23604.91093</v>
+      </c>
+      <c r="D53" t="n">
+        <v>64664.39999999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2077</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4676977.19118</v>
+      </c>
+      <c r="G53" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>300.9999999999981</v>
+      </c>
+      <c r="I53" t="n">
+        <v>303.9999999999987</v>
+      </c>
+      <c r="J53" t="n">
+        <v>783.7999999999988</v>
+      </c>
+      <c r="K53" t="n">
+        <v>202571</v>
+      </c>
+      <c r="L53" t="n">
+        <v>87368.90999999997</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8408723.879599998</v>
+      </c>
+      <c r="N53" t="n">
+        <v>34.9999999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4502</v>
+      </c>
+      <c r="P53" t="n">
+        <v>19397519.88531</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15029</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25869.38778</v>
+      </c>
+      <c r="D54" t="n">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1123.999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>866008.9385099995</v>
+      </c>
+      <c r="G54" t="n">
+        <v>26.1124013157894</v>
+      </c>
+      <c r="H54" t="n">
+        <v>124.9999999999992</v>
+      </c>
+      <c r="I54" t="n">
+        <v>194.9999999999991</v>
+      </c>
+      <c r="J54" t="n">
+        <v>257.8755753993303</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2327.949027416018</v>
+      </c>
+      <c r="L54" t="n">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M54" t="n">
+        <v>352889.0944825563</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11.99999999999995</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3211</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9430951.714799995</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21205.02672</v>
+      </c>
+      <c r="D55" t="n">
+        <v>59994</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1042.999999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1194600.348719999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26.1124013157894</v>
+      </c>
+      <c r="H55" t="n">
+        <v>140.9999999999991</v>
+      </c>
+      <c r="I55" t="n">
+        <v>92.99999999999956</v>
+      </c>
+      <c r="J55" t="n">
+        <v>563.5999999999992</v>
+      </c>
+      <c r="K55" t="n">
+        <v>61373.67232632842</v>
+      </c>
+      <c r="L55" t="n">
+        <v>57654.41999999999</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8271274.176000002</v>
+      </c>
+      <c r="N55" t="n">
+        <v>36.99999999999991</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3090</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7029925.234559999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11442</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20804.7701584703</v>
+      </c>
+      <c r="D56" t="n">
+        <v>69421.59999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>104.0508328856842</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3389505.0557</v>
+      </c>
+      <c r="G56" t="n">
+        <v>26.1124013157894</v>
+      </c>
+      <c r="H56" t="n">
+        <v>164.9999999999989</v>
+      </c>
+      <c r="I56" t="n">
+        <v>248.999999999999</v>
+      </c>
+      <c r="J56" t="n">
+        <v>497.8528815868382</v>
+      </c>
+      <c r="K56" t="n">
+        <v>19594.91258346423</v>
+      </c>
+      <c r="L56" t="n">
+        <v>57789.99999999995</v>
+      </c>
+      <c r="M56" t="n">
+        <v>708166.2951166953</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5.999999999999963</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3403</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5939939.10276</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2850.946154295078</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20804.7701584703</v>
+      </c>
+      <c r="D57" t="n">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E57" t="n">
+        <v>692.2186286246737</v>
+      </c>
+      <c r="F57" t="n">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="G57" t="n">
+        <v>26.1124013157894</v>
+      </c>
+      <c r="H57" t="n">
+        <v>90.46358267621305</v>
+      </c>
+      <c r="I57" t="n">
+        <v>38.93405059763593</v>
+      </c>
+      <c r="J57" t="n">
+        <v>497.8528815868382</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15515.3670540922</v>
+      </c>
+      <c r="L57" t="n">
+        <v>35901.05</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2185490.020395464</v>
+      </c>
+      <c r="N57" t="n">
+        <v>28.51419426482713</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1635.642762831732</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1301161.105164705</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2608.145795000716</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22823.19152</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7865.83285463539</v>
+      </c>
+      <c r="E58" t="n">
+        <v>318.6556757124091</v>
+      </c>
+      <c r="F58" t="n">
+        <v>310464.0523193225</v>
+      </c>
+      <c r="G58" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>90.46358267621305</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.438557720639002</v>
+      </c>
+      <c r="J58" t="n">
+        <v>89.06238011880001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>86576.99999999991</v>
+      </c>
+      <c r="L58" t="n">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2185490.020395464</v>
+      </c>
+      <c r="N58" t="n">
+        <v>28.51419426482713</v>
+      </c>
+      <c r="O58" t="n">
+        <v>784.9745428300824</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2038235.528024235</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6011.999999999998</v>
+      </c>
+      <c r="C59" t="n">
+        <v>20804.7701584703</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20455.99999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>692.2186286246737</v>
+      </c>
+      <c r="F59" t="n">
+        <v>899043.3909999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="H59" t="n">
+        <v>147.9999999999991</v>
+      </c>
+      <c r="I59" t="n">
+        <v>70.48069954407941</v>
+      </c>
+      <c r="J59" t="n">
+        <v>618.4999999999993</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29004.37737062724</v>
+      </c>
+      <c r="L59" t="n">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2652645.517799999</v>
+      </c>
+      <c r="N59" t="n">
+        <v>28.51419426482713</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1635.642762831732</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6067714.946849998</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5316.102679715117</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20804.7701584703</v>
+      </c>
+      <c r="D60" t="n">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1097.999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>786293.0504705467</v>
+      </c>
+      <c r="G60" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>122.9999999999992</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70.48069954407941</v>
+      </c>
+      <c r="J60" t="n">
+        <v>497.8528815868382</v>
+      </c>
+      <c r="K60" t="n">
+        <v>61373.67232632842</v>
+      </c>
+      <c r="L60" t="n">
+        <v>29602.9087374105</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2725337.620799998</v>
+      </c>
+      <c r="N60" t="n">
+        <v>28.51419426482713</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1635.642762831732</v>
+      </c>
+      <c r="P60" t="n">
+        <v>776217.685124798</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5316.102679715117</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20804.7701584703</v>
+      </c>
+      <c r="D61" t="n">
+        <v>18102.33886557139</v>
+      </c>
+      <c r="E61" t="n">
+        <v>692.2186286246737</v>
+      </c>
+      <c r="F61" t="n">
         <v>411275.6384501042</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G61" t="n">
         <v>29.58</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H61" t="n">
         <v>90.46358267621305</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I61" t="n">
         <v>113.9999999999995</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J61" t="n">
         <v>497.8528815868382</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K61" t="n">
         <v>116218</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L61" t="n">
         <v>29804.74999999999</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M61" t="n">
         <v>5228156.335899999</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N61" t="n">
         <v>38.99999999999991</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O61" t="n">
         <v>1635.642762831732</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P61" t="n">
         <v>3002048.203665785</v>
       </c>
     </row>
